--- a/metricsWithoutComments.xlsx
+++ b/metricsWithoutComments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4434,6 +4434,5116 @@
         <v>0.4028637973587552</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>def create_instance(self, body, project_id=None):
+        """
+        Creates a new Cloud SQL instance.
+        :param body: Body required by the Cloud SQL insert API, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/instances/insert#request-body.
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        response = self.get_conn().instances().insert(
+            project=project_id,
+            body=body
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(project_id=project_id,
+                                             operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Creates a new Cloud SQL instance.
+        :param body: Body required by the Cloud SQL insert API, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/instances/insert#request-body.
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Creates a new Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">new Cloud SQL </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>6.969175280117518e-05</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.3544587784792834</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>def patch_instance(self, body, instance, project_id=None):
+        """
+        Updates settings of a Cloud SQL instance.
+        Caution: This is not a partial update, so you must include values for
+        all the settings that you want to retain.
+        :param body: Body required by the Cloud SQL patch API, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/instances/patch#request-body.
+        :type body: dict
+        :param instance: Cloud SQL instance ID. This does not include the project ID.
+        :type instance: str
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        response = self.get_conn().instances().patch(
+            project=project_id,
+            instance=instance,
+            body=body
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(project_id=project_id,
+                                             operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Updates settings of a Cloud SQL instance.
+        Caution: This is not a partial update, so you must include values for
+        all the settings that you want to retain.
+        :param body: Body required by the Cloud SQL patch API, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/instances/patch#request-body.
+        :type body: dict
+        :param instance: Cloud SQL instance ID. This does not include the project ID.
+        :type instance: str
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Updates a Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>def patchinstance(body settings of a Cloud SQLinstance    _operation_to_complete(_id=</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3.771702485954586e-09</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5314981395767446</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>def delete_instance(self, instance, project_id=None):
+        """
+        Deletes a Cloud SQL instance.
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :param instance: Cloud SQL instance ID. This does not include the project ID.
+        :type instance: str
+        :return: None
+        """
+        response = self.get_conn().instances().delete(
+            project=project_id,
+            instance=instance,
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(project_id=project_id,
+                                             operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Deletes a Cloud SQL instance.
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :param instance: Cloud SQL instance ID. This does not include the project ID.
+        :type instance: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Delete a Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   DeletesaCloud SQL instance.
+</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2.471781286805601e-05</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.4545454545454546</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>def get_database(self, instance, database, project_id=None):
+        """
+        Retrieves a database resource from a Cloud SQL instance.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param database: Name of the database in the instance.
+        :type database: str
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: A Cloud SQL database resource, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/databases#resource.
+        :rtype: dict
+        """
+        return self.get_conn().databases().get(
+            project=project_id,
+            instance=instance,
+            database=database
+        ).execute(num_retries=self.num_retries)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Retrieves a database resource from a Cloud SQL instance.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param database: Name of the database in the instance.
+        :type database: str
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: A Cloud SQL database resource, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/databases#resource.
+        :rtype: dict</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Retrieves a database resource from a Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Retrievesa database resource a Cloud SQLinstance</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>6.77287364908539e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5714767668127444</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>def create_database(self, instance, body, project_id=None):
+        """
+        Creates a new database inside a Cloud SQL instance.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param body: The request body, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/databases/insert#request-body.
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        response = self.get_conn().databases().insert(
+            project=project_id,
+            instance=instance,
+            body=body
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(project_id=project_id,
+                                             operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Creates a new database inside a Cloud SQL instance.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param body: The request body, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/databases/insert#request-body.
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Creates a new database inside a Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>newdatabaseinside  Cloud SQLinstance</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0002485168271079518</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.3933978962347217</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>def patch_database(self, instance, database, body, project_id=None):
+        """
+        Updates a database resource inside a Cloud SQL instance.
+        This method supports patch semantics.
+        See https://cloud.google.com/sql/docs/mysql/admin-api/how-tos/performance#patch.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param database: Name of the database to be updated in the instance.
+        :type database: str
+        :param body: The request body, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/databases/insert#request-body.
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        response = self.get_conn().databases().patch(
+            project=project_id,
+            instance=instance,
+            database=database,
+            body=body
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(project_id=project_id,
+                                             operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Updates a database resource inside a Cloud SQL instance.
+        This method supports patch semantics.
+        See https://cloud.google.com/sql/docs/mysql/admin-api/how-tos/performance#patch.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param database: Name of the database to be updated in the instance.
+        :type database: str
+        :param body: The request body, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/databases/insert#request-body.
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Updates a database in a Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def patch_database(self,instance,database,    """      Updates a Cloud SQL instance    supports patch </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1.389623741179309e-06</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.449395898573615</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>def delete_database(self, instance, database, project_id=None):
+        """
+        Deletes a database from a Cloud SQL instance.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param database: Name of the database to be deleted in the instance.
+        :type database: str
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        response = self.get_conn().databases().delete(
+            project=project_id,
+            instance=instance,
+            database=database
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(project_id=project_id,
+                                             operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Deletes a database from a Cloud SQL instance.
+        :param instance: Database instance ID. This does not include the project ID.
+        :type instance: str
+        :param database: Name of the database to be deleted in the instance.
+        :type database: str
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Delete a database from a Cloud SQL instance.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>deletedatabasefroma Cloud SQL instance</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.000106544622897517</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.4298011912959397</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>def export_instance(self, instance, body, project_id=None):
+        """
+        Exports data from a Cloud SQL instance to a Cloud Storage bucket as a SQL dump
+        or CSV file.
+        :param instance: Database instance ID of the Cloud SQL instance. This does not include the
+            project ID.
+        :type instance: str
+        :param body: The request body, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/instances/export#request-body
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        try:
+            response = self.get_conn().instances().export(
+                project=project_id,
+                instance=instance,
+                body=body
+            ).execute(num_retries=self.num_retries)
+            operation_name = response["name"]
+            self._wait_for_operation_to_complete(project_id=project_id,
+                                                 operation_name=operation_name)
+        except HttpError as ex:
+            raise AirflowException(
+                'Exporting instance {} failed: {}'.format(instance, ex.content)
+            )</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Exports data from a Cloud SQL instance to a Cloud Storage bucket as a SQL dump
+        or CSV file.
+        :param instance: Database instance ID of the Cloud SQL instance. This does not include the
+            project ID.
+        :type instance: str
+        :param body: The request body, as described in
+            https://cloud.google.com/sql/docs/mysql/admin-api/v1beta4/instances/export#request-body
+        :type body: dict
+        :param project_id: Project ID of the project that contains the instance. If set
+            to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Exports data from a Cloud SQL instance to a Cloud Storage bucket as SQL dump CSV file or</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">export_instance(,""       Exportsdata from Cloud SQL instance to  Storage bucket as a SQL dump
+        orCSV file.
+        :instance  the
+project that instance. missing,   :retries)
+operation = response[
+ </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.005583033080555684</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.6451822708364094</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>def _wait_for_operation_to_complete(self, project_id, operation_name):
+        """
+        Waits for the named operation to complete - checks status of the
+        asynchronous call.
+        :param project_id: Project ID of the project that contains the instance.
+        :type project_id: str
+        :param operation_name: Name of the operation.
+        :type operation_name: str
+        :return: None
+        """
+        service = self.get_conn()
+        while True:
+            operation_response = service.operations().get(
+                project=project_id,
+                operation=operation_name,
+            ).execute(num_retries=self.num_retries)
+            if operation_response.get("status") == CloudSqlOperationStatus.DONE:
+                error = operation_response.get("error")
+                if error:
+                    # Extracting the errors list as string and trimming square braces
+                    error_msg = str(error.get("errors"))[1:-1]
+                    raise AirflowException(error_msg)
+                # No meaningful info to return from the response in case of success
+                return
+            time.sleep(TIME_TO_SLEEP_IN_SECONDS)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Waits for the named operation to complete - checks status of the
+        asynchronous call.
+        :param project_id: Project ID of the project that contains the instance.
+        :type project_id: str
+        :param operation_name: Name of the operation.
+        :type operation_name: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Waits for the named operation to complete - checks status of the asynchronous call.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>:    "  Waitsforthe named operationto complete-checks status of the
+     asynchronous call.(</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0848672789700174</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.7016464154456232</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>def start_proxy(self):
+        """
+        Starts Cloud SQL Proxy.
+        You have to remember to stop the proxy if you started it!
+        """
+        self._download_sql_proxy_if_needed()
+        if self.sql_proxy_process:
+            raise AirflowException("The sql proxy is already running: {}".format(
+                self.sql_proxy_process))
+        else:
+            command_to_run = [self.sql_proxy_path]
+            command_to_run.extend(self.command_line_parameters)
+            try:
+                self.log.info("Creating directory %s",
+                              self.cloud_sql_proxy_socket_directory)
+                os.makedirs(self.cloud_sql_proxy_socket_directory)
+            except OSError:
+                # Needed for python 2 compatibility (exists_ok missing)
+                pass
+            command_to_run.extend(self._get_credential_parameters())
+            self.log.info("Running the command: `%s`", " ".join(command_to_run))
+            self.sql_proxy_process = Popen(command_to_run,
+                                           stdin=PIPE, stdout=PIPE, stderr=PIPE)
+            self.log.info("The pid of cloud_sql_proxy: %s", self.sql_proxy_process.pid)
+            while True:
+                line = self.sql_proxy_process.stderr.readline().decode('utf-8')
+                return_code = self.sql_proxy_process.poll()
+                if line == '' and return_code is not None:
+                    self.sql_proxy_process = None
+                    raise AirflowException(
+                        "The cloud_sql_proxy finished early with return code {}!".format(
+                            return_code))
+                if line != '':
+                    self.log.info(line)
+                if "googleapi: Error" in line or "invalid instance name:" in line:
+                    self.stop_proxy()
+                    raise AirflowException(
+                        "Error when starting the cloud_sql_proxy {}!".format(
+                            line))
+                if "Ready for new connections" in line:
+                    return</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Starts Cloud SQL Proxy.
+        You have to remember to stop the proxy if you started it!</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Starts the SQL proxy.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Starts SQL Proxy.    
+  The sqlproxy </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0224408361890442</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5393598899705936</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>def stop_proxy(self):
+        """
+        Stops running proxy.
+        You should stop the proxy after you stop using it.
+        """
+        if not self.sql_proxy_process:
+            raise AirflowException("The sql proxy is not started yet")
+        else:
+            self.log.info("Stopping the cloud_sql_proxy pid: %s",
+                          self.sql_proxy_process.pid)
+            self.sql_proxy_process.kill()
+            self.sql_proxy_process = None
+        # Cleanup!
+        self.log.info("Removing the socket directory: %s",
+                      self.cloud_sql_proxy_socket_directory)
+        shutil.rmtree(self.cloud_sql_proxy_socket_directory, ignore_errors=True)
+        if self.sql_proxy_was_downloaded:
+            self.log.info("Removing downloaded proxy: %s", self.sql_proxy_path)
+            # Silently ignore if the file has already been removed (concurrency)
+            try:
+                os.remove(self.sql_proxy_path)
+            except OSError as e:
+                if not e.errno == errno.ENOENT:
+                    raise
+        else:
+            self.log.info("Skipped removing proxy - it was not downloaded: %s",
+                          self.sql_proxy_path)
+        if os.path.isfile(self.credentials_path):
+            self.log.info("Removing generated credentials file %s",
+                          self.credentials_path)
+            # Here file cannot be delete by concurrent task (each task has its own copy)
+            os.remove(self.credentials_path)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Stops running proxy.
+        You should stop the proxy after you stop using it.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Stop the proxy.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>stop_proxy</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03022961915888166</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6488856845230501</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>def get_proxy_version(self):
+        """
+        Returns version of the Cloud SQL Proxy.
+        """
+        self._download_sql_proxy_if_needed()
+        command_to_run = [self.sql_proxy_path]
+        command_to_run.extend(['--version'])
+        command_to_run.extend(self._get_credential_parameters())
+        result = subprocess.check_output(command_to_run).decode('utf-8')
+        pattern = re.compile("^.*[V|v]ersion ([^;]*);.*$")
+        m = pattern.match(result)
+        if m:
+            return m.group(1)
+        else:
+            return None</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Returns version of the Cloud SQL Proxy.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Returns version of the Cloud SQL Proxy.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Returns versionof the Cloud SQL Proxy""melse
+</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9354143466934851</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>def create_connection(self, session=None):
+        """
+        Create connection in the Connection table, according to whether it uses
+        proxy, TCP, UNIX sockets, SSL. Connection ID will be randomly generated.
+        :param session: Session of the SQL Alchemy ORM (automatically generated with
+                        decorator).
+        """
+        connection = Connection(conn_id=self.db_conn_id)
+        uri = self._generate_connection_uri()
+        self.log.info("Creating connection %s", self.db_conn_id)
+        connection.parse_from_uri(uri)
+        session.add(connection)
+        session.commit()</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Create connection in the Connection table, according to whether it uses
+        proxy, TCP, UNIX sockets, SSL. Connection ID will be randomly generated.
+        :param session: Session of the SQL Alchemy ORM (automatically generated with
+                        decorator).</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Create a new connection in the Connection table according to whether it uses
+        proxy TCP unix</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>connection"
+  Create connection in the Connection table, according whether it uses
+        proxy TCP, UNIX sockets,  session:</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.09201957889539011</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7544335361543176</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>def retrieve_connection(self, session=None):
+        """
+        Retrieves the dynamically created connection from the Connection table.
+        :param session: Session of the SQL Alchemy ORM (automatically generated with
+                        decorator).
+        """
+        self.log.info("Retrieving connection %s", self.db_conn_id)
+        connections = session.query(Connection).filter(
+            Connection.conn_id == self.db_conn_id)
+        if connections.count():
+            return connections[0]
+        return None</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Retrieves the dynamically created connection from the Connection table.
+        :param session: Session of the SQL Alchemy ORM (automatically generated with
+                        decorator).</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Retrieves the dynamically created connection from the Connection table.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ "
+      Retrieves the dynamicallycreatedconnectionfrom Connection table.
+</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1826835240527346</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6815542010964778</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>def delete_connection(self, session=None):
+        """
+        Delete the dynamically created connection from the Connection table.
+        :param session: Session of the SQL Alchemy ORM (automatically generated with
+                        decorator).
+        """
+        self.log.info("Deleting connection %s", self.db_conn_id)
+        connections = session.query(Connection).filter(
+            Connection.conn_id == self.db_conn_id)
+        if connections.count():
+            connection = connections[0]
+            session.delete(connection)
+            session.commit()
+        else:
+            self.log.info("Connection was already deleted!")</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Delete the dynamically created connection from the Connection table.
+        :param session: Session of the SQL Alchemy ORM (automatically generated with
+                        decorator).</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Delete the dynamically created connection from the Connection table.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delete the dynamically createdconnectionfromthe Connection table
+       param Session </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.1826835240527346</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.834730012368303</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>def get_sqlproxy_runner(self):
+        """
+        Retrieve Cloud SQL Proxy runner. It is used to manage the proxy
+        lifecycle per task.
+        :return: The Cloud SQL Proxy runner.
+        :rtype: CloudSqlProxyRunner
+        """
+        if not self.use_proxy:
+            raise AirflowException("Proxy runner can only be retrieved in case of use_proxy = True")
+        return CloudSqlProxyRunner(
+            path_prefix=self.sql_proxy_unique_path,
+            instance_specification=self._get_sqlproxy_instance_specification(),
+            project_id=self.project_id,
+            sql_proxy_version=self.sql_proxy_version,
+            sql_proxy_binary_path=self.sql_proxy_binary_path
+        )</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Retrieve Cloud SQL Proxy runner. It is used to manage the proxy
+        lifecycle per task.
+        :return: The Cloud SQL Proxy runner.
+        :rtype: CloudSqlProxyRunner</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Retrieve the Cloud SQL Proxy runner.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">get_runner(    Retrieve Cloud SQL Proxy runner.CloudSqlProxyRunner
+ </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.03146117349554454</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6758378183830472</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>def get_database_hook(self):
+        """
+        Retrieve database hook. This is the actual Postgres or MySQL database hook
+        that uses proxy or connects directly to the Google Cloud SQL database.
+        """
+        if self.database_type == 'postgres':
+            self.db_hook = PostgresHook(postgres_conn_id=self.db_conn_id,
+                                        schema=self.database)
+        else:
+            self.db_hook = MySqlHook(mysql_conn_id=self.db_conn_id,
+                                     schema=self.database)
+        return self.db_hook</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Retrieve database hook. This is the actual Postgres or MySQL database hook
+        that uses proxy or connects directly to the Google Cloud SQL database.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Retrieve database hook.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retrieve database hook. </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.004086771438464067</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>def cleanup_database_hook(self):
+        """
+        Clean up database hook after it was used.
+        """
+        if self.database_type == 'postgres':
+            if hasattr(self.db_hook,
+                       'conn') and self.db_hook.conn and self.db_hook.conn.notices:
+                for output in self.db_hook.conn.notices:
+                    self.log.info(output)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Clean up database hook after it was used.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Clean up database hook after it was used.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Clean up database hookafter it wasused</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>def reserve_free_tcp_port(self):
+        """
+        Reserve free TCP port to be used by Cloud SQL Proxy
+        """
+        self.reserved_tcp_socket = socket.socket(socket.AF_INET, socket.SOCK_STREAM)
+        self.reserved_tcp_socket.bind(('127.0.0.1', 0))
+        self.sql_proxy_tcp_port = self.reserved_tcp_socket.getsockname()[1]</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Reserve free TCP port to be used by Cloud SQL Proxy</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Reserve free TCP port to be used by Cloud SQL Proxy</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Reserve free TCP port tobeused byCloud SQL Proxy</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>def _normalize_mlengine_job_id(job_id):
+    """
+    Replaces invalid MLEngine job_id characters with '_'.
+    This also adds a leading 'z' in case job_id starts with an invalid
+    character.
+    Args:
+        job_id: A job_id str that may have invalid characters.
+    Returns:
+        A valid job_id representation.
+    """
+    # Add a prefix when a job_id starts with a digit or a template
+    match = re.search(r'\d|\{{2}', job_id)
+    if match and match.start() == 0:
+        job = 'z_{}'.format(job_id)
+    else:
+        job = job_id
+    # Clean up 'bad' characters except templates
+    tracker = 0
+    cleansed_job_id = ''
+    for m in re.finditer(r'\{{2}.+?\}{2}', job):
+        cleansed_job_id += re.sub(r'[^0-9a-zA-Z]+', '_',
+                                  job[tracker:m.start()])
+        cleansed_job_id += job[m.start():m.end()]
+        tracker = m.end()
+    # Clean up last substring or the full string if no templates
+    cleansed_job_id += re.sub(r'[^0-9a-zA-Z]+', '_', job[tracker:])
+    return cleansed_job_id</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Replaces invalid MLEngine job_id characters with '_'.
+    This also adds a leading 'z' in case job_id starts with an invalid
+    character.
+    Args:
+        job_id: A job_id str that may have invalid characters.
+    Returns:
+        A valid job_id representation.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Normalizes a job_id string that may be in the format of a MLEngine job_</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>defnormalize_mlenginejobid(): """
+    Replacesinvalid MLEngine job  '_ adds    Args:id:A job_id strthatmay invalid characters
+    Returns    valid job_a or template
+    =re ()</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.004652394602509796</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3361697712509186</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>def _get_error_code(self, e):
+        """Extract error code from ftp exception"""
+        try:
+            matches = self.error_code_pattern.match(str(e))
+            code = int(matches.group(0))
+            return code
+        except ValueError:
+            return e</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Extract error code from ftp exception</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Extract error code from ftp exception.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">self,Extracterrorcodefromftpexception"""            (     </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8091067115702212</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9258200997725515</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>def _integrate_plugins():
+    """Integrate plugins to the context"""
+    import sys
+    from airflow.plugins_manager import sensors_modules
+    for sensors_module in sensors_modules:
+        sys.modules[sensors_module.__name__] = sensors_module
+        globals()[sensors_module._name] = sensors_module</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Integrate plugins to the context</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Integrate plugins to the context</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Integrateplugins to thecontext</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>def clear_dag_runs():
+    """
+    Remove any existing DAG runs for the perf test DAGs.
+    """
+    session = settings.Session()
+    drs = session.query(DagRun).filter(
+        DagRun.dag_id.in_(DAG_IDS),
+    ).all()
+    for dr in drs:
+        logging.info('Deleting DagRun :: {}'.format(dr))
+        session.delete(dr)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Remove any existing DAG runs for the perf test DAGs.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Remove any DagRun objects that are not in the DAG_IDS list.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>clear_dagruns):""
+Remove anyexisting DAGs((DAG_IDS for
+(DagRun</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0428361950754725</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.7016464154456235</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>def clear_dag_task_instances():
+    """
+    Remove any existing task instances for the perf test DAGs.
+    """
+    session = settings.Session()
+    TI = TaskInstance
+    tis = (
+        session
+        .query(TI)
+        .filter(TI.dag_id.in_(DAG_IDS))
+        .all()
+    )
+    for ti in tis:
+        logging.info('Deleting TaskInstance :: {}'.format(ti))
+        session.delete(ti)
+    session.commit()</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Remove any existing task instances for the perf test DAGs.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Remove any existing task instances for the DAGs.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dagtask    """Remove any existingtask instancesforperf DAGs.
+"""        TI        </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.6433351856152976</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.7893522173763264</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>def set_dags_paused_state(is_paused):
+    """
+    Toggle the pause state of the DAGs in the test.
+    """
+    session = settings.Session()
+    dms = session.query(DagModel).filter(
+        DagModel.dag_id.in_(DAG_IDS))
+    for dm in dms:
+        logging.info('Setting DAG :: {} is_paused={}'.format(dm, is_paused))
+        dm.is_paused = is_paused
+    session.commit()</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Toggle the pause state of the DAGs in the test.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Toggle the pause state of the DAGs in the test.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Togglepause state ofthe DAGs inthe test.</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9799118698777319</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>def print_stats(self):
+        """
+        Print operational metrics for the scheduler test.
+        """
+        session = settings.Session()
+        TI = TaskInstance
+        tis = (
+            session
+            .query(TI)
+            .filter(TI.dag_id.in_(DAG_IDS))
+            .all()
+        )
+        successful_tis = [x for x in tis if x.state == State.SUCCESS]
+        ti_perf = [(ti.dag_id, ti.task_id, ti.execution_date,
+                    (ti.queued_dttm - self.start_date).total_seconds(),
+                    (ti.start_date - self.start_date).total_seconds(),
+                    (ti.end_date - self.start_date).total_seconds(),
+                    ti.duration) for ti in successful_tis]
+        ti_perf_df = pd.DataFrame(ti_perf, columns=['dag_id', 'task_id',
+                                                    'execution_date',
+                                                    'queue_delay',
+                                                    'start_delay', 'land_time',
+                                                    'duration'])
+        print('Performance Results')
+        print('###################')
+        for dag_id in DAG_IDS:
+            print('DAG {}'.format(dag_id))
+            print(ti_perf_df[ti_perf_df['dag_id'] == dag_id])
+        print('###################')
+        if len(tis) &gt; len(successful_tis):
+            print("WARNING!! The following task instances haven't completed")
+            print(pd.DataFrame([(ti.dag_id, ti.task_id, ti.execution_date, ti.state)
+                  for ti in filter(lambda x: x.state != State.SUCCESS, tis)],
+                  columns=['dag_id', 'task_id', 'execution_date', 'state']))
+        session.commit()</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Print operational metrics for the scheduler test.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Print operational metrics for the scheduler test.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Print operational metricsforthe scheduler test</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>def heartbeat(self):
+        """
+        Override the scheduler heartbeat to determine when the test is complete
+        """
+        super(SchedulerMetricsJob, self).heartbeat()
+        session = settings.Session()
+        # Get all the relevant task instances
+        TI = TaskInstance
+        successful_tis = (
+            session
+            .query(TI)
+            .filter(TI.dag_id.in_(DAG_IDS))
+            .filter(TI.state.in_([State.SUCCESS]))
+            .all()
+        )
+        session.commit()
+        dagbag = DagBag(SUBDIR)
+        dags = [dagbag.dags[dag_id] for dag_id in DAG_IDS]
+        # the tasks in perf_dag_1 and per_dag_2 have a daily schedule interval.
+        num_task_instances = sum([(timezone.utcnow() - task.start_date).days
+                                 for dag in dags for task in dag.tasks])
+        if (len(successful_tis) == num_task_instances or
+                (timezone.utcnow() - self.start_date).total_seconds() &gt;
+                MAX_RUNTIME_SECS):
+            if len(successful_tis) == num_task_instances:
+                self.log.info("All tasks processed! Printing stats.")
+            else:
+                self.log.info("Test timeout reached. Printing available stats.")
+            self.print_stats()
+            set_dags_paused_state(True)
+            sys.exit()</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Override the scheduler heartbeat to determine when the test is complete</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Override the scheduler heartbeat to determine when the test is complete.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Override the scheduler heartbeat determine when testis complete self </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9036020036098448</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8770580193070294</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>def invoke_lambda(self, payload):
+        """
+        Invoke Lambda Function
+        """
+        awslambda_conn = self.get_conn()
+        response = awslambda_conn.invoke(
+            FunctionName=self.function_name,
+            InvocationType=self.invocation_type,
+            LogType=self.log_type,
+            Payload=payload,
+            Qualifier=self.qualifier
+        )
+        return response</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Invoke Lambda Function</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Invoke Lambda Function.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">invoke("""Invoke Lambda Function                     </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.3976353643835253</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9428090415820636</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>def get_dag_run_state(dag_id, execution_date):
+    """Return the task object identified by the given dag_id and task_id."""
+    dagbag = DagBag()
+    # Check DAG exists.
+    if dag_id not in dagbag.dags:
+        error_message = "Dag id {} not found".format(dag_id)
+        raise DagNotFound(error_message)
+    # Get DAG object and check Task Exists
+    dag = dagbag.get_dag(dag_id)
+    # Get DagRun object and check that it exists
+    dagrun = dag.get_dagrun(execution_date=execution_date)
+    if not dagrun:
+        error_message = ('Dag Run for date {} not found in dag {}'
+                         .format(execution_date, dag_id))
+        raise DagRunNotFound(error_message)
+    return {'state': dagrun.get_state()}</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Return the task object identified by the given dag_id and task_id.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Return the state of the DagRun object identified by the given dag_id and task</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>defdag_run_state(""Return the task object identified  given dag_id and task_id.""GetDagRun that
+   {'</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.4913270548144421</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5095246653650681</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>def create_evaluate_ops(task_prefix,
+                        data_format,
+                        input_paths,
+                        prediction_path,
+                        metric_fn_and_keys,
+                        validate_fn,
+                        batch_prediction_job_id=None,
+                        project_id=None,
+                        region=None,
+                        dataflow_options=None,
+                        model_uri=None,
+                        model_name=None,
+                        version_name=None,
+                        dag=None):
+    """
+    Creates Operators needed for model evaluation and returns.
+    It gets prediction over inputs via Cloud ML Engine BatchPrediction API by
+    calling MLEngineBatchPredictionOperator, then summarize and validate
+    the result via Cloud Dataflow using DataFlowPythonOperator.
+    For details and pricing about Batch prediction, please refer to the website
+    https://cloud.google.com/ml-engine/docs/how-tos/batch-predict
+    and for Cloud Dataflow, https://cloud.google.com/dataflow/docs/
+    It returns three chained operators for prediction, summary, and validation,
+    named as &lt;prefix&gt;-prediction, &lt;prefix&gt;-summary, and &lt;prefix&gt;-validation,
+    respectively.
+    (&lt;prefix&gt; should contain only alphanumeric characters or hyphen.)
+    The upstream and downstream can be set accordingly like:
+      pred, _, val = create_evaluate_ops(...)
+      pred.set_upstream(upstream_op)
+      ...
+      downstream_op.set_upstream(val)
+    Callers will provide two python callables, metric_fn and validate_fn, in
+    order to customize the evaluation behavior as they wish.
+    - metric_fn receives a dictionary per instance derived from json in the
+      batch prediction result. The keys might vary depending on the model.
+      It should return a tuple of metrics.
+    - validation_fn receives a dictionary of the averaged metrics that metric_fn
+      generated over all instances.
+      The key/value of the dictionary matches to what's given by
+      metric_fn_and_keys arg.
+      The dictionary contains an additional metric, 'count' to represent the
+      total number of instances received for evaluation.
+      The function would raise an exception to mark the task as failed, in a
+      case the validation result is not okay to proceed (i.e. to set the trained
+      version as default).
+    Typical examples are like this:
+    def get_metric_fn_and_keys():
+        import math  # imports should be outside of the metric_fn below.
+        def error_and_squared_error(inst):
+            label = float(inst['input_label'])
+            classes = float(inst['classes'])  # 0 or 1
+            err = abs(classes-label)
+            squared_err = math.pow(classes-label, 2)
+            return (err, squared_err)  # returns a tuple.
+        return error_and_squared_error, ['err', 'mse']  # key order must match.
+    def validate_err_and_count(summary):
+        if summary['err'] &gt; 0.2:
+            raise ValueError('Too high err&gt;0.2; summary=%s' % summary)
+        if summary['mse'] &gt; 0.05:
+            raise ValueError('Too high mse&gt;0.05; summary=%s' % summary)
+        if summary['count'] &lt; 1000:
+            raise ValueError('Too few instances&lt;1000; summary=%s' % summary)
+        return summary
+    For the details on the other BatchPrediction-related arguments (project_id,
+    job_id, region, data_format, input_paths, prediction_path, model_uri),
+    please refer to MLEngineBatchPredictionOperator too.
+    :param task_prefix: a prefix for the tasks. Only alphanumeric characters and
+        hyphen are allowed (no underscores), since this will be used as dataflow
+        job name, which doesn't allow other characters.
+    :type task_prefix: str
+    :param data_format: either of 'TEXT', 'TF_RECORD', 'TF_RECORD_GZIP'
+    :type data_format: str
+    :param input_paths: a list of input paths to be sent to BatchPrediction.
+    :type input_paths: list[str]
+    :param prediction_path: GCS path to put the prediction results in.
+    :type prediction_path: str
+    :param metric_fn_and_keys: a tuple of metric_fn and metric_keys:
+        - metric_fn is a function that accepts a dictionary (for an instance),
+          and returns a tuple of metric(s) that it calculates.
+        - metric_keys is a list of strings to denote the key of each metric.
+    :type metric_fn_and_keys: tuple of a function and a list[str]
+    :param validate_fn: a function to validate whether the averaged metric(s) is
+        good enough to push the model.
+    :type validate_fn: function
+    :param batch_prediction_job_id: the id to use for the Cloud ML Batch
+        prediction job. Passed directly to the MLEngineBatchPredictionOperator as
+        the job_id argument.
+    :type batch_prediction_job_id: str
+    :param project_id: the Google Cloud Platform project id in which to execute
+        Cloud ML Batch Prediction and Dataflow jobs. If None, then the `dag`'s
+        `default_args['project_id']` will be used.
+    :type project_id: str
+    :param region: the Google Cloud Platform region in which to execute Cloud ML
+        Batch Prediction and Dataflow jobs. If None, then the `dag`'s
+        `default_args['region']` will be used.
+    :type region: str
+    :param dataflow_options: options to run Dataflow jobs. If None, then the
+        `dag`'s `default_args['dataflow_default_options']` will be used.
+    :type dataflow_options: dictionary
+    :param model_uri: GCS path of the model exported by Tensorflow using
+        tensorflow.estimator.export_savedmodel(). It cannot be used with
+        model_name or version_name below. See MLEngineBatchPredictionOperator for
+        more detail.
+    :type model_uri: str
+    :param model_name: Used to indicate a model to use for prediction. Can be
+        used in combination with version_name, but cannot be used together with
+        model_uri. See MLEngineBatchPredictionOperator for more detail. If None,
+        then the `dag`'s `default_args['model_name']` will be used.
+    :type model_name: str
+    :param version_name: Used to indicate a model version to use for prediction,
+        in combination with model_name. Cannot be used together with model_uri.
+        See MLEngineBatchPredictionOperator for more detail. If None, then the
+        `dag`'s `default_args['version_name']` will be used.
+    :type version_name: str
+    :param dag: The `DAG` to use for all Operators.
+    :type dag: airflow.models.DAG
+    :returns: a tuple of three operators, (prediction, summary, validation)
+    :rtype: tuple(DataFlowPythonOperator, DataFlowPythonOperator,
+                  PythonOperator)
+    """
+    # Verify that task_prefix doesn't have any special characters except hyphen
+    # '-', which is the only allowed non-alphanumeric character by Dataflow.
+    if not re.match(r"^[a-zA-Z][-A-Za-z0-9]*$", task_prefix):
+        raise AirflowException(
+            "Malformed task_id for DataFlowPythonOperator (only alphanumeric "
+            "and hyphens are allowed but got: " + task_prefix)
+    metric_fn, metric_keys = metric_fn_and_keys
+    if not callable(metric_fn):
+        raise AirflowException("`metric_fn` param must be callable.")
+    if not callable(validate_fn):
+        raise AirflowException("`validate_fn` param must be callable.")
+    if dag is not None and dag.default_args is not None:
+        default_args = dag.default_args
+        project_id = project_id or default_args.get('project_id')
+        region = region or default_args.get('region')
+        model_name = model_name or default_args.get('model_name')
+        version_name = version_name or default_args.get('version_name')
+        dataflow_options = dataflow_options or \
+            default_args.get('dataflow_default_options')
+    evaluate_prediction = MLEngineBatchPredictionOperator(
+        task_id=(task_prefix + "-prediction"),
+        project_id=project_id,
+        job_id=batch_prediction_job_id,
+        region=region,
+        data_format=data_format,
+        input_paths=input_paths,
+        output_path=prediction_path,
+        uri=model_uri,
+        model_name=model_name,
+        version_name=version_name,
+        dag=dag)
+    metric_fn_encoded = base64.b64encode(dill.dumps(metric_fn, recurse=True))
+    evaluate_summary = DataFlowPythonOperator(
+        task_id=(task_prefix + "-summary"),
+        py_options=["-m"],
+        py_file="airflow.contrib.utils.mlengine_prediction_summary",
+        dataflow_default_options=dataflow_options,
+        options={
+            "prediction_path": prediction_path,
+            "metric_fn_encoded": metric_fn_encoded,
+            "metric_keys": ','.join(metric_keys)
+        },
+        dag=dag)
+    evaluate_summary.set_upstream(evaluate_prediction)
+    def apply_validate_fn(*args, **kwargs):
+        prediction_path = kwargs["templates_dict"]["prediction_path"]
+        scheme, bucket, obj, _, _ = urlsplit(prediction_path)
+        if scheme != "gs" or not bucket or not obj:
+            raise ValueError("Wrong format prediction_path: %s",
+                             prediction_path)
+        summary = os.path.join(obj.strip("/"),
+                               "prediction.summary.json")
+        gcs_hook = GoogleCloudStorageHook()
+        summary = json.loads(gcs_hook.download(bucket, summary))
+        return validate_fn(summary)
+    evaluate_validation = PythonOperator(
+        task_id=(task_prefix + "-validation"),
+        python_callable=apply_validate_fn,
+        provide_context=True,
+        templates_dict={"prediction_path": prediction_path},
+        dag=dag)
+    evaluate_validation.set_upstream(evaluate_summary)
+    return evaluate_prediction, evaluate_summary, evaluate_validation</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Creates Operators needed for model evaluation and returns.
+    It gets prediction over inputs via Cloud ML Engine BatchPrediction API by
+    calling MLEngineBatchPredictionOperator, then summarize and validate
+    the result via Cloud Dataflow using DataFlowPythonOperator.
+    For details and pricing about Batch prediction, please refer to the website
+    https://cloud.google.com/ml-engine/docs/how-tos/batch-predict
+    and for Cloud Dataflow, https://cloud.google.com/dataflow/docs/
+    It returns three chained operators for prediction, summary, and validation,
+    named as &lt;prefix&gt;-prediction, &lt;prefix&gt;-summary, and &lt;prefix&gt;-validation,
+    respectively.
+    (&lt;prefix&gt; should contain only alphanumeric characters or hyphen.)
+    The upstream and downstream can be set accordingly like:
+      pred, _, val = create_evaluate_ops(...)
+      pred.set_upstream(upstream_op)
+      ...
+      downstream_op.set_upstream(val)
+    Callers will provide two python callables, metric_fn and validate_fn, in
+    order to customize the evaluation behavior as they wish.
+    - metric_fn receives a dictionary per instance derived from json in the
+      batch prediction result. The keys might vary depending on the model.
+      It should return a tuple of metrics.
+    - validation_fn receives a dictionary of the averaged metrics that metric_fn
+      generated over all instances.
+      The key/value of the dictionary matches to what's given by
+      metric_fn_and_keys arg.
+      The dictionary contains an additional metric, 'count' to represent the
+      total number of instances received for evaluation.
+      The function would raise an exception to mark the task as failed, in a
+      case the validation result is not okay to proceed (i.e. to set the trained
+      version as default).
+    Typical examples are like this:
+    def get_metric_fn_and_keys():
+        import math  # imports should be outside of the metric_fn below.
+        def error_and_squared_error(inst):
+            label = float(inst['input_label'])
+            classes = float(inst['classes'])  # 0 or 1
+            err = abs(classes-label)
+            squared_err = math.pow(classes-label, 2)
+            return (err, squared_err)  # returns a tuple.
+        return error_and_squared_error, ['err', 'mse']  # key order must match.
+    def validate_err_and_count(summary):
+        if summary['err'] &gt; 0.2:
+            raise ValueError('Too high err&gt;0.2; summary=%s' % summary)
+        if summary['mse'] &gt; 0.05:
+            raise ValueError('Too high mse&gt;0.05; summary=%s' % summary)
+        if summary['count'] &lt; 1000:
+            raise ValueError('Too few instances&lt;1000; summary=%s' % summary)
+        return summary
+    For the details on the other BatchPrediction-related arguments (project_id,
+    job_id, region, data_format, input_paths, prediction_path, model_uri),
+    please refer to MLEngineBatchPredictionOperator too.
+    :param task_prefix: a prefix for the tasks. Only alphanumeric characters and
+        hyphen are allowed (no underscores), since this will be used as dataflow
+        job name, which doesn't allow other characters.
+    :type task_prefix: str
+    :param data_format: either of 'TEXT', 'TF_RECORD', 'TF_RECORD_GZIP'
+    :type data_format: str
+    :param input_paths: a list of input paths to be sent to BatchPrediction.
+    :type input_paths: list[str]
+    :param prediction_path: GCS path to put the prediction results in.
+    :type prediction_path: str
+    :param metric_fn_and_keys: a tuple of metric_fn and metric_keys:
+        - metric_fn is a function that accepts a dictionary (for an instance),
+          and returns a tuple of metric(s) that it calculates.
+        - metric_keys is a list of strings to denote the key of each metric.
+    :type metric_fn_and_keys: tuple of a function and a list[str]
+    :param validate_fn: a function to validate whether the averaged metric(s) is
+        good enough to push the model.
+    :type validate_fn: function
+    :param batch_prediction_job_id: the id to use for the Cloud ML Batch
+        prediction job. Passed directly to the MLEngineBatchPredictionOperator as
+        the job_id argument.
+    :type batch_prediction_job_id: str
+    :param project_id: the Google Cloud Platform project id in which to execute
+        Cloud ML Batch Prediction and Dataflow jobs. If None, then the `dag`'s
+        `default_args['project_id']` will be used.
+    :type project_id: str
+    :param region: the Google Cloud Platform region in which to execute Cloud ML
+        Batch Prediction and Dataflow jobs. If None, then the `dag`'s
+        `default_args['region']` will be used.
+    :type region: str
+    :param dataflow_options: options to run Dataflow jobs. If None, then the
+        `dag`'s `default_args['dataflow_default_options']` will be used.
+    :type dataflow_options: dictionary
+    :param model_uri: GCS path of the model exported by Tensorflow using
+        tensorflow.estimator.export_savedmodel(). It cannot be used with
+        model_name or version_name below. See MLEngineBatchPredictionOperator for
+        more detail.
+    :type model_uri: str
+    :param model_name: Used to indicate a model to use for prediction. Can be
+        used in combination with version_name, but cannot be used together with
+        model_uri. See MLEngineBatchPredictionOperator for more detail. If None,
+        then the `dag`'s `default_args['model_name']` will be used.
+    :type model_name: str
+    :param version_name: Used to indicate a model version to use for prediction,
+        in combination with model_name. Cannot be used together with model_uri.
+        See MLEngineBatchPredictionOperator for more detail. If None, then the
+        `dag`'s `default_args['version_name']` will be used.
+    :type version_name: str
+    :param dag: The `DAG` to use for all Operators.
+    :type dag: airflow.models.DAG
+    :returns: a tuple of three operators, (prediction, summary, validation)
+    :rtype: tuple(DataFlowPythonOperator, DataFlowPythonOperator,
+                  PythonOperator)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Create a list of evaluation and validation operations for a single node.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>createevaluate_ops(
+     )
+    .validate order evaluation
+ BatchPrediction and Dataflow  :jobs.Operators.
+fn
+    def()
+ =(bucket  evaluatevalidation= PythonOperator(summary)
+return evaluateprediction,evaluate</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3.446127639872276e-36</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2003452950107108</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>def mkdirs(path, mode):
+    """
+    Creates the directory specified by path, creating intermediate directories
+    as necessary. If directory already exists, this is a no-op.
+    :param path: The directory to create
+    :type path: str
+    :param mode: The mode to give to the directory e.g. 0o755, ignores umask
+    :type mode: int
+    """
+    try:
+        o_umask = os.umask(0)
+        os.makedirs(path, mode)
+    except OSError:
+        if not os.path.isdir(path):
+            raise
+    finally:
+        os.umask(o_umask)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Creates the directory specified by path, creating intermediate directories
+    as necessary. If directory already exists, this is a no-op.
+    :param path: The directory to create
+    :type path: str
+    :param mode: The mode to give to the directory e.g. 0o755, ignores umask
+    :type mode: int</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Creates the directory specified by path creating intermediate directories as necessary.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>"
+    Creates the directory specifiedby path creating intermediate directories
+    as necessary:param</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01805535354045129</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.64258956443021</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>def _convert_to_float_if_possible(s):
+    """
+    A small helper function to convert a string to a numeric value
+    if appropriate
+    :param s: the string to be converted
+    :type s: str
+    """
+    try:
+        ret = float(s)
+    except (ValueError, TypeError):
+        ret = s
+    return ret</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>A small helper function to convert a string to a numeric value
+    if appropriate
+    :param s: the string to be converted
+    :type s: str</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A small helper function to convert a string to a numeric value if appropriate.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_floatif""A small helper functionto convertstring to a numeric value
+ if appropriate
+</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.388988538914436</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7934920476158722</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>def utcnow():
+    """
+    Get the current date and time in UTC
+    :return:
+    """
+    # pendulum utcnow() is not used as that sets a TimezoneInfo object
+    # instead of a Timezone. This is not pickable and also creates issues
+    # when using replace()
+    d = dt.datetime.utcnow()
+    d = d.replace(tzinfo=utc)
+    return d</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Get the current date and time in UTC
+    :return:</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get the current date and time in UTC
+   </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Getthe current date andtime inUTC
+   </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6872892787909722</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9428090415820634</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>def utc_epoch():
+    """
+    Gets the epoch in the users timezone
+    :return:
+    """
+    # pendulum utcnow() is not used as that sets a TimezoneInfo object
+    # instead of a Timezone. This is not pickable and also creates issues
+    # when using replace()
+    d = dt.datetime(1970, 1, 1)
+    d = d.replace(tzinfo=utc)
+    return d</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Gets the epoch in the users timezone
+    :return:</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gets the epoch in the users timezone
+   </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Gets the epoch inthe users timezone
+   </t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6514390575310556</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9486832980505138</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>def convert_to_utc(value):
+    """
+    Returns the datetime with the default timezone added if timezone
+    information was not associated
+    :param value: datetime
+    :return: datetime with tzinfo
+    """
+    if not value:
+        return value
+    if not is_localized(value):
+        value = pendulum.instance(value, TIMEZONE)
+    return value.astimezone(utc)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Returns the datetime with the default timezone added if timezone
+    information was not associated
+    :param value: datetime
+    :return: datetime with tzinfo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Converts the given value to UTC.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>to_utc  default 
+    value
+.instance(value</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.003002136524390099</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1846372364689991</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>def make_aware(value, timezone=None):
+    """
+    Make a naive datetime.datetime in a given time zone aware.
+    :param value: datetime
+    :param timezone: timezone
+    :return: localized datetime in settings.TIMEZONE or timezone
+    """
+    if timezone is None:
+        timezone = TIMEZONE
+    # Check that we won't overwrite the timezone of an aware datetime.
+    if is_localized(value):
+        raise ValueError(
+            "make_aware expects a naive datetime, got %s" % value)
+    if hasattr(value, 'fold'):
+        # In case of python 3.6 we want to do the same that pendulum does for python3.5
+        # i.e in case we move clock back we want to schedule the run at the time of the second
+        # instance of the same clock time rather than the first one.
+        # Fold parameter has no impact in other cases so we can safely set it to 1 here
+        value = value.replace(fold=1)
+    if hasattr(timezone, 'localize'):
+        # This method is available for pytz time zones.
+        return timezone.localize(value)
+    elif hasattr(timezone, 'convert'):
+        # For pendulum
+        return timezone.convert(value)
+    else:
+        # This may be wrong around DST changes!
+        return value.replace(tzinfo=timezone)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Make a naive datetime.datetime in a given time zone aware.
+    :param value: datetime
+    :param timezone: timezone
+    :return: localized datetime in settings.TIMEZONE or timezone</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Make a naive datetime in a given time zone aware.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Makea naive datetime in a given time zoneaware.
+</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1315634639292393</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5940885257860045</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>def make_naive(value, timezone=None):
+    """
+    Make an aware datetime.datetime naive in a given time zone.
+    :param value: datetime
+    :param timezone: timezone
+    :return: naive datetime
+    """
+    if timezone is None:
+        timezone = TIMEZONE
+    # Emulate the behavior of astimezone() on Python &lt; 3.6.
+    if is_naive(value):
+        raise ValueError("make_naive() cannot be applied to a naive datetime")
+    o = value.astimezone(timezone)
+    # cross library compatibility
+    naive = dt.datetime(o.year,
+                        o.month,
+                        o.day,
+                        o.hour,
+                        o.minute,
+                        o.second,
+                        o.microsecond)
+    return naive</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Make an aware datetime.datetime naive in a given time zone.
+    :param value: datetime
+    :param timezone: timezone
+    :return: naive datetime</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Make an aware datetime. datetime naive in a given time zone.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Make an aware datetime.datetime naive in  given time zone."</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2226880005596494</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.8067842963896241</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>def datetime(*args, **kwargs):
+    """
+    Wrapper around datetime.datetime that adds settings.TIMEZONE if tzinfo not specified
+    :return: datetime.datetime
+    """
+    if 'tzinfo' not in kwargs:
+        kwargs['tzinfo'] = TIMEZONE
+    return dt.datetime(*args, **kwargs)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Wrapper around datetime.datetime that adds settings.TIMEZONE if tzinfo not specified
+    :return: datetime.datetime</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Wrapper around datetime. datetime that adds settings. TIMEZONE to the datetime object.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Wrapperaround datetime that adds settings.TIMEZONE if    :return</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.03953088374669841</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.769800358919501</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>def _set_env_from_extras(self, extras):
+        """
+        Sets the environment variable `GOOGLE_APPLICATION_CREDENTIALS` with either:
+        - The path to the keyfile from the specified connection id
+        - A generated file's path if the user specified JSON in the connection id. The
+            file is assumed to be deleted after the process dies due to how mkstemp()
+            works.
+        The environment variable is used inside the gcloud command to determine correct
+        service account to use.
+        """
+        key_path = self._get_field(extras, 'key_path', False)
+        keyfile_json_str = self._get_field(extras, 'keyfile_dict', False)
+        if not key_path and not keyfile_json_str:
+            self.log.info('Using gcloud with application default credentials.')
+        elif key_path:
+            os.environ[G_APP_CRED] = key_path
+        else:
+            # Write service account JSON to secure file for gcloud to reference
+            service_key = tempfile.NamedTemporaryFile(delete=False)
+            service_key.write(keyfile_json_str)
+            os.environ[G_APP_CRED] = service_key.name
+            # Return file object to have a pointer to close after use,
+            # thus deleting from file system.
+            return service_key</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sets the environment variable `GOOGLE_APPLICATION_CREDENTIALS` with either:
+        - The path to the keyfile from the specified connection id
+        - A generated file's path if the user specified JSON in the connection id. The
+            file is assumed to be deleted after the process dies due to how mkstemp()
+            works.
+        The environment variable is used inside the gcloud command to determine correct
+        service account to use.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Set the environment variables based on the extras.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>def setfrom_extras(self extras     """
+       Sets the environment variable`GOOGLE_CREDENTIALS with keyfilespecifiedspecifiedJSON in.  variable determine"" key    else            os.environ=</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>4.920998530753836e-05</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.3604809621383231</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>def _get_field(self, extras, field, default=None):
+        """
+        Fetches a field from extras, and returns it. This is some Airflow
+        magic. The google_cloud_platform hook type adds custom UI elements
+        to the hook page, which allow admins to specify service_account,
+        key_path, etc. They get formatted as shown below.
+        """
+        long_f = 'extra__google_cloud_platform__{}'.format(field)
+        if long_f in extras:
+            return extras[long_f]
+        else:
+            self.log.info('Field %s not found in extras.', field)
+            return default</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Fetches a field from extras, and returns it. This is some Airflow
+        magic. The google_cloud_platform hook type adds custom UI elements
+        to the hook page, which allow admins to specify service_account,
+        key_path, etc. They get formatted as shown below.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fetches a field from extras and returns it.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"
+      Fetchesa fieldfromextras,and returns it.        </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.01096540541028418</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.3988620176087329</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>def get_conn(self):
+        """
+        Establish a connection to druid broker.
+        """
+        conn = self.get_connection(self.druid_broker_conn_id)
+        druid_broker_conn = connect(
+            host=conn.host,
+            port=conn.port,
+            path=conn.extra_dejson.get('endpoint', '/druid/v2/sql'),
+            scheme=conn.extra_dejson.get('schema', 'http')
+        )
+        self.log.info('Get the connection to druid broker on %s', conn.host)
+        return druid_broker_conn</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Establish a connection to druid broker.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Establish a connection to the druid broker.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">conn(
+ Establishaconnection to druid broker. </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9128709291752769</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>def get_conn(self, headers=None):
+        """
+        Returns http session for use with requests
+        :param headers: additional headers to be passed through as a dictionary
+        :type headers: dict
+        """
+        session = requests.Session()
+        if self.http_conn_id:
+            conn = self.get_connection(self.http_conn_id)
+            if "://" in conn.host:
+                self.base_url = conn.host
+            else:
+                # schema defaults to HTTP
+                schema = conn.schema if conn.schema else "http"
+                self.base_url = schema + "://" + conn.host
+            if conn.port:
+                self.base_url = self.base_url + ":" + str(conn.port)
+            if conn.login:
+                session.auth = (conn.login, conn.password)
+            if conn.extra:
+                try:
+                    session.headers.update(conn.extra_dejson)
+                except TypeError:
+                    self.log.warn('Connection to %s has invalid extra field.', conn.host)
+        if headers:
+            session.headers.update(headers)
+        return session</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Returns http session for use with requests
+        :param headers: additional headers to be passed through as a dictionary
+        :type headers: dict</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Returns a requests. Session for use with requests. Session.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>0.1167179151725076</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.3805211953235953</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>def run(self, endpoint, data=None, headers=None, extra_options=None):
+        """
+        Performs the request
+        :param endpoint: the endpoint to be called i.e. resource/v1/query?
+        :type endpoint: str
+        :param data: payload to be uploaded or request parameters
+        :type data: dict
+        :param headers: additional headers to be passed through as a dictionary
+        :type headers: dict
+        :param extra_options: additional options to be used when executing the request
+            i.e. {'check_response': False} to avoid checking raising exceptions on non
+            2XX or 3XX status codes
+        :type extra_options: dict
+        """
+        extra_options = extra_options or {}
+        session = self.get_conn(headers)
+        if self.base_url and not self.base_url.endswith('/') and \
+           endpoint and not endpoint.startswith('/'):
+            url = self.base_url + '/' + endpoint
+        else:
+            url = (self.base_url or '') + (endpoint or '')
+        req = None
+        if self.method == 'GET':
+            # GET uses params
+            req = requests.Request(self.method,
+                                   url,
+                                   params=data,
+                                   headers=headers)
+        elif self.method == 'HEAD':
+            # HEAD doesn't use params
+            req = requests.Request(self.method,
+                                   url,
+                                   headers=headers)
+        else:
+            # Others use data
+            req = requests.Request(self.method,
+                                   url,
+                                   data=data,
+                                   headers=headers)
+        prepped_request = session.prepare_request(req)
+        self.log.info("Sending '%s' to url: %s", self.method, url)
+        return self.run_and_check(session, prepped_request, extra_options)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Performs the request
+        :param endpoint: the endpoint to be called i.e. resource/v1/query?
+        :type endpoint: str
+        :param data: payload to be uploaded or request parameters
+        :type data: dict
+        :param headers: additional headers to be passed through as a dictionary
+        :type headers: dict
+        :param extra_options: additional options to be used when executing the request
+            i.e. {'check_response': False} to avoid checking raising exceptions on non
+            2XX or 3XX status codes
+        :type extra_options: dict</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Performs the request sequence sequence feature feature feature feature feature feature feature feature feature feature feature feature feature</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">runself,endpoint:        """
+        Performs the request
+    endpoint:     
+            checking        </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0008288850454817034</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.346764183232649</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>def check_response(self, response):
+        """
+        Checks the status code and raise an AirflowException exception on non 2XX or 3XX
+        status codes
+        :param response: A requests response object
+        :type response: requests.response
+        """
+        try:
+            response.raise_for_status()
+        except requests.exceptions.HTTPError:
+            self.log.error("HTTP error: %s", response.reason)
+            if self.method not in ['GET', 'HEAD']:
+                self.log.error(response.text)
+            raise AirflowException(str(response.status_code) + ":" + response.reason)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Checks the status code and raise an AirflowException exception on non 2XX or 3XX
+        status codes
+        :param response: A requests response object
+        :type response: requests.response</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Check the status code and raise an AirflowException on non 2XX or 3XX</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Checks the status andraisean AirflowException onnon 2XX or log(HTTP </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2223105200194906</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.476462890006631</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>def run_and_check(self, session, prepped_request, extra_options):
+        """
+        Grabs extra options like timeout and actually runs the request,
+        checking for the result
+        :param session: the session to be used to execute the request
+        :type session: requests.Session
+        :param prepped_request: the prepared request generated in run()
+        :type prepped_request: session.prepare_request
+        :param extra_options: additional options to be used when executing the request
+            i.e. {'check_response': False} to avoid checking raising exceptions on non 2XX
+            or 3XX status codes
+        :type extra_options: dict
+        """
+        extra_options = extra_options or {}
+        try:
+            response = session.send(
+                prepped_request,
+                stream=extra_options.get("stream", False),
+                verify=extra_options.get("verify", True),
+                proxies=extra_options.get("proxies", {}),
+                cert=extra_options.get("cert"),
+                timeout=extra_options.get("timeout"),
+                allow_redirects=extra_options.get("allow_redirects", True))
+            if extra_options.get('check_response', True):
+                self.check_response(response)
+            return response
+        except requests.exceptions.ConnectionError as ex:
+            self.log.warn(str(ex) + ' Tenacity will retry to execute the operation')
+            raise ex</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Grabs extra options like timeout and actually runs the request,
+        checking for the result
+        :param session: the session to be used to execute the request
+        :type session: requests.Session
+        :param prepped_request: the prepared request generated in run()
+        :type prepped_request: session.prepare_request
+        :param extra_options: additional options to be used when executing the request
+            i.e. {'check_response': False} to avoid checking raising exceptions on non 2XX
+            or 3XX status codes
+        :type extra_options: dict</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Run a request and check the response.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">run_andcheckresponse checking   try            _request   </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1.885690276370024e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.2339821522296494</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>def run_with_advanced_retry(self, _retry_args, *args, **kwargs):
+        """
+        Runs Hook.run() with a Tenacity decorator attached to it. This is useful for
+        connectors which might be disturbed by intermittent issues and should not
+        instantly fail.
+        :param _retry_args: Arguments which define the retry behaviour.
+            See Tenacity documentation at https://github.com/jd/tenacity
+        :type _retry_args: dict
+        :Example::
+            hook = HttpHook(http_conn_id='my_conn',method='GET')
+            retry_args = dict(
+                 wait=tenacity.wait_exponential(),
+                 stop=tenacity.stop_after_attempt(10),
+                 retry=requests.exceptions.ConnectionError
+             )
+             hook.run_with_advanced_retry(
+                     endpoint='v1/test',
+                     _retry_args=retry_args
+                 )
+        """
+        self._retry_obj = tenacity.Retrying(
+            **_retry_args
+        )
+        self._retry_obj(self.run, *args, **kwargs)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Runs Hook.run() with a Tenacity decorator attached to it. This is useful for
+        connectors which might be disturbed by intermittent issues and should not
+        instantly fail.
+        :param _retry_args: Arguments which define the retry behaviour.
+            See Tenacity documentation at https://github.com/jd/tenacity
+        :type _retry_args: dict
+        :Example::
+            hook = HttpHook(http_conn_id='my_conn',method='GET')
+            retry_args = dict(
+                 wait=tenacity.wait_exponential(),
+                 stop=tenacity.stop_after_attempt(10),
+                 retry=requests.exceptions.ConnectionError
+             )
+             hook.run_with_advanced_retry(
+                     endpoint='v1/test',
+                     _retry_args=retry_args
+                 )</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Runs a single node with a Tenacity decorator attached to it.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">run_withadvanced_)
+           RunsHook(with Tenacity decoratorattached to tenacity(
+   )
+</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.001032020716617586</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.4857861675572602</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>def create_session():
+    """
+    Contextmanager that will create and teardown a session.
+    """
+    session = settings.Session()
+    try:
+        yield session
+        session.commit()
+    except Exception:
+        session.rollback()
+        raise
+    finally:
+        session.close()</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Contextmanager that will create and teardown a session.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Contextmanager that creates a session and commits it.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">create_session():
+    Contextmanager that will  yield commit():
+ </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.07936880926086218</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7142857142857141</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>def provide_session(func):
+    """
+    Function decorator that provides a session if it isn't provided.
+    If you want to reuse a session or run the function as part of a
+    database transaction, you pass it to the function, if not this wrapper
+    will create one and close it for you.
+    """
+    @wraps(func)
+    def wrapper(*args, **kwargs):
+        arg_session = 'session'
+        func_params = func.__code__.co_varnames
+        session_in_args = arg_session in func_params and \
+            func_params.index(arg_session) &lt; len(args)
+        session_in_kwargs = arg_session in kwargs
+        if session_in_kwargs or session_in_args:
+            return func(*args, **kwargs)
+        else:
+            with create_session() as session:
+                kwargs[arg_session] = session
+                return func(*args, **kwargs)
+    return wrapper</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Function decorator that provides a session if it isn't provided.
+    If you want to reuse a session or run the function as part of a
+    database transaction, you pass it to the function, if not this wrapper
+    will create one and close it for you.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A decorator that provides a session if it isn t provided.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>decoratorthatprovides a session if isn'tprovided.</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.02469232812072329</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.4008918628686366</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>def resetdb():
+    """
+    Clear out the database
+    """
+    from airflow import models
+    # alembic adds significant import time, so we import it lazily
+    from alembic.migration import MigrationContext
+    log.info("Dropping tables that exist")
+    models.base.Base.metadata.drop_all(settings.engine)
+    mc = MigrationContext.configure(settings.engine)
+    if mc._version.exists(settings.engine):
+        mc._version.drop(settings.engine)
+    from flask_appbuilder.models.sqla import Base
+    Base.metadata.drop_all(settings.engine)
+    initdb()</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Clear out the database</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Clear out the database and drop all tables that exist.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>resetdb Clear out import MigrationContext
+ Dropping tables that exist"</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.23462350320528</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>def execute(self, context):
+        """Upload a file to Azure Blob Storage."""
+        hook = WasbHook(wasb_conn_id=self.wasb_conn_id)
+        self.log.info(
+            'Uploading %s to wasb://%s '
+            'as %s'.format(self.file_path, self.container_name, self.blob_name)
+        )
+        hook.load_file(self.file_path, self.container_name,
+                       self.blob_name, **self.load_options)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Upload a file to Azure Blob Storage.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Upload a file to Azure Blob Storage.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Upload a to Azure BlobStorage.""</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9128709291752769</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>def get_conn(self):
+        """Returns a connection object"""
+        db = self.get_connection(self.presto_conn_id)
+        reqkwargs = None
+        if db.password is not None:
+            reqkwargs = {'auth': HTTPBasicAuth(db.login, db.password)}
+        return presto.connect(
+            host=db.host,
+            port=db.port,
+            username=db.login,
+            source=db.extra_dejson.get('source', 'airflow'),
+            protocol=db.extra_dejson.get('protocol', 'http'),
+            catalog=db.extra_dejson.get('catalog', 'hive'),
+            requests_kwargs=reqkwargs,
+            schema=db.schema)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Returns a connection object</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Returns a connection object based on the presto_conn_id.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(:
+        """Returns aconnection object"self.presto_conn_id)      ,
+</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.2984745896009823</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.6546536707079772</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>def _get_pretty_exception_message(e):
+        """
+        Parses some DatabaseError to provide a better error message
+        """
+        if (hasattr(e, 'message') and
+            'errorName' in e.message and
+                'message' in e.message):
+            return ('{name}: {message}'.format(
+                    name=e.message['errorName'],
+                    message=e.message['message']))
+        else:
+            return str(e)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Parses some DatabaseError to provide a better error message</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Returns a pretty error message for a given exception.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>pretty_exception_message(e)
+   DatabaseError</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.04939382737115371</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.3535533905932737</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>def get_records(self, hql, parameters=None):
+        """
+        Get a set of records from Presto
+        """
+        try:
+            return super().get_records(
+                self._strip_sql(hql), parameters)
+        except DatabaseError as e:
+            raise PrestoException(self._get_pretty_exception_message(e))</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Get a set of records from Presto</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Get a set of records from the Presto
+       .</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">)        """
+     Get a set ofrecordsfrom Presto
+        """ self.),parameters)
+</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.6104735835807844</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.8660254037844387</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>def get_pandas_df(self, hql, parameters=None):
+        """
+        Get a pandas dataframe from a sql query.
+        """
+        import pandas
+        cursor = self.get_cursor()
+        try:
+            cursor.execute(self._strip_sql(hql), parameters)
+            data = cursor.fetchall()
+        except DatabaseError as e:
+            raise PrestoException(self._get_pretty_exception_message(e))
+        column_descriptions = cursor.description
+        if data:
+            df = pandas.DataFrame(data)
+            df.columns = [c[0] for c in column_descriptions]
+        else:
+            df = pandas.DataFrame()
+        return df</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Get a pandas dataframe from a sql query.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Get a pandas dataframe from a sql query.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> get_pandasdataframe a sql query.
+    </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9128709291752769</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>def run(self, hql, parameters=None):
+        """
+        Execute the statement against Presto. Can be used to create views.
+        """
+        return super().run(self._strip_sql(hql), parameters)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Execute the statement against Presto. Can be used to create views.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Execute the given HQL statement against Presto. Can be used to create views.
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>hql)
+ """    Execute the statement against Presto. Can to create views.
+        "hql)</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7487402156832422</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7526178090063819</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>def insert_rows(self, table, rows, target_fields=None):
+        """
+        A generic way to insert a set of tuples into a table.
+        :param table: Name of the target table
+        :type table: str
+        :param rows: The rows to insert into the table
+        :type rows: iterable of tuples
+        :param target_fields: The names of the columns to fill in the table
+        :type target_fields: iterable of strings
+        """
+        super().insert_rows(table, rows, target_fields, 0)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>A generic way to insert a set of tuples into a table.
+        :param table: Name of the target table
+        :type table: str
+        :param rows: The rows to insert into the table
+        :type rows: iterable of tuples
+        :param target_fields: The names of the columns to fill in the table
+        :type target_fields: iterable of strings</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A generic way to insert a set of tuples into a table.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>A generic way insertsetof tuples</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.01695956874143546</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.382546027838003</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>def get_conn(self):
+        """
+        Return a cosmos db client.
+        """
+        if self.cosmos_client is not None:
+            return self.cosmos_client
+        # Initialize the Python Azure Cosmos DB client
+        self.cosmos_client = cosmos_client.CosmosClient(self.endpoint_uri, {'masterKey': self.master_key})
+        return self.cosmos_client</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Return a cosmos db client.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Get a connection to the Cosmos DB.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">defgetconnself:
+        "".cosmos_
+CosmosDB   </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.06985342056580097</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>def does_collection_exist(self, collection_name, database_name=None):
+        """
+        Checks if a collection exists in CosmosDB.
+        """
+        if collection_name is None:
+            raise AirflowBadRequest("Collection name cannot be None.")
+        existing_container = list(self.get_conn().QueryContainers(
+            get_database_link(self.__get_database_name(database_name)), {
+                "query": "SELECT * FROM r WHERE r.id=@id",
+                "parameters": [
+                    {"name": "@id", "value": collection_name}
+                ]
+            }))
+        if len(existing_container) == 0:
+            return False
+        return True</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Checks if a collection exists in CosmosDB.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Checks if a collection exists in CosmosDB.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>doesif acollection in CosmosDB</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.7302967433402215</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>def create_collection(self, collection_name, database_name=None):
+        """
+        Creates a new collection in the CosmosDB database.
+        """
+        if collection_name is None:
+            raise AirflowBadRequest("Collection name cannot be None.")
+        # We need to check to see if this container already exists so we don't try
+        # to create it twice
+        existing_container = list(self.get_conn().QueryContainers(
+            get_database_link(self.__get_database_name(database_name)), {
+                "query": "SELECT * FROM r WHERE r.id=@id",
+                "parameters": [
+                    {"name": "@id", "value": collection_name}
+                ]
+            }))
+        # Only create if we did not find it already existing
+        if len(existing_container) == 0:
+            self.get_conn().CreateContainer(
+                get_database_link(self.__get_database_name(database_name)),
+                {"id": collection_name})</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Creates a new collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Create a new collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>create,      Creates collectionin the CosmosDB database</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.8633400213704505</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.8571428571428569</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>def does_database_exist(self, database_name):
+        """
+        Checks if a database exists in CosmosDB.
+        """
+        if database_name is None:
+            raise AirflowBadRequest("Database name cannot be None.")
+        existing_database = list(self.get_conn().QueryDatabases({
+            "query": "SELECT * FROM r WHERE r.id=@id",
+            "parameters": [
+                {"name": "@id", "value": database_name}
+            ]
+        }))
+        if len(existing_database) == 0:
+            return False
+        return True</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Checks if a database exists in CosmosDB.</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checks if a database exists in CosmosDB.
+           </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>"Checksifa database existsin CosmosDB.
+    """    
+            raise(</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9258200997725515</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>def create_database(self, database_name):
+        """
+        Creates a new database in CosmosDB.
+        """
+        if database_name is None:
+            raise AirflowBadRequest("Database name cannot be None.")
+        # We need to check to see if this database already exists so we don't try
+        # to create it twice
+        existing_database = list(self.get_conn().QueryDatabases({
+            "query": "SELECT * FROM r WHERE r.id=@id",
+            "parameters": [
+                {"name": "@id", "value": database_name}
+            ]
+        }))
+        # Only create if we did not find it already existing
+        if len(existing_database) == 0:
+            self.get_conn().CreateDatabase({"id": database_name})</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Creates a new database in CosmosDB.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creates a new database in CosmosDB.
+           </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"
+        Creates  database in CosmosDB.
+        """None:
+            raise </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.7302967433402215</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>def delete_database(self, database_name):
+        """
+        Deletes an existing database in CosmosDB.
+        """
+        if database_name is None:
+            raise AirflowBadRequest("Database name cannot be None.")
+        self.get_conn().DeleteDatabase(get_database_link(database_name))</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Deletes an existing database in CosmosDB.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Deletes an existing database in CosmosDB.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>name:    Deletes anexistingdatabasein CosmosDB</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9258200997725515</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>def delete_collection(self, collection_name, database_name=None):
+        """
+        Deletes an existing collection in the CosmosDB database.
+        """
+        if collection_name is None:
+            raise AirflowBadRequest("Collection name cannot be None.")
+        self.get_conn().DeleteContainer(
+            get_collection_link(self.__get_database_name(database_name), collection_name))</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Deletes an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Delete an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>existing collectionin the CosmosDB database.
+ DeleteContainerdatabase</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.8633400213704505</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.7826237921249264</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>def upsert_document(self, document, database_name=None, collection_name=None, document_id=None):
+        """
+        Inserts a new document (or updates an existing one) into an existing
+        collection in the CosmosDB database.
+        """
+        # Assign unique ID if one isn't provided
+        if document_id is None:
+            document_id = str(uuid.uuid4())
+        if document is None:
+            raise AirflowBadRequest("You cannot insert a None document")
+        # Add document id if isn't found
+        if 'id' in document:
+            if document['id'] is None:
+                document['id'] = document_id
+        else:
+            document['id'] = document_id
+        created_document = self.get_conn().CreateItem(
+            get_collection_link(
+                self.__get_database_name(database_name),
+                self.__get_collection_name(collection_name)),
+            document)
+        return created_document</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Inserts a new document (or updates an existing one) into an existing
+        collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Inserts a new document into an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+""Inserts a document (existing)intoanexisting        collectionin the CosmosDB database.
+        ":   </t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.496808423714694</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.8682431421244594</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>def insert_documents(self, documents, database_name=None, collection_name=None):
+        """
+        Insert a list of new documents into an existing collection in the CosmosDB database.
+        """
+        if documents is None:
+            raise AirflowBadRequest("You cannot insert empty documents")
+        created_documents = []
+        for single_document in documents:
+            created_documents.append(
+                self.get_conn().CreateItem(
+                    get_collection_link(
+                        self.__get_database_name(database_name),
+                        self.__get_collection_name(collection_name)),
+                    single_document))
+        return created_documents</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Insert a list of new documents into an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Insert a list of new documents into an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">:Inserta list new documentsintoanexisting intheCosmosDB database.
+</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9198662110078001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>def delete_document(self, document_id, database_name=None, collection_name=None):
+        """
+        Delete an existing document out of a collection in the CosmosDB database.
+        """
+        if document_id is None:
+            raise AirflowBadRequest("Cannot delete a document without an id")
+        self.get_conn().DeleteItem(
+            get_document_link(
+                self.__get_database_name(database_name),
+                self.__get_collection_name(collection_name),
+                document_id))</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Delete an existing document out of a collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Delete an existing document out of a collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Delete anexisting document out a collectionin the CosmosDB database.
+"  </t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9534625892455926</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>def get_document(self, document_id, database_name=None, collection_name=None):
+        """
+        Get a document from an existing collection in the CosmosDB database.
+        """
+        if document_id is None:
+            raise AirflowBadRequest("Cannot get a document without an id")
+        try:
+            return self.get_conn().ReadItem(
+                get_document_link(
+                    self.__get_database_name(database_name),
+                    self.__get_collection_name(collection_name),
+                    document_id))
+        except HTTPFailure:
+            return None</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Get a document from an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Get a document from an existing collection in the CosmosDB database.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Getdocumentfromexistingcollectioninthe CosmosDB database.       : </t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9486832980505138</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>def get_documents(self, sql_string, database_name=None, collection_name=None, partition_key=None):
+        """
+        Get a list of documents from an existing collection in the CosmosDB database via SQL query.
+        """
+        if sql_string is None:
+            raise AirflowBadRequest("SQL query string cannot be None")
+        # Query them in SQL
+        query = {'query': sql_string}
+        try:
+            result_iterable = self.get_conn().QueryItems(
+                get_collection_link(
+                    self.__get_database_name(database_name),
+                    self.__get_collection_name(collection_name)),
+                query,
+                partition_key)
+            return list(result_iterable)
+        except HTTPFailure:
+            return None</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Get a list of documents from an existing collection in the CosmosDB database via SQL query.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Get a list of documents from an existing collection via SQL query.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>,     Get a documentsfrom existing collectionviaSQL query</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6257642590528176</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.7302967433402213</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>def get_code(dag_id):
+    """Return python code of a given dag_id."""
+    session = settings.Session()
+    DM = models.DagModel
+    dag = session.query(DM).filter(DM.dag_id == dag_id).first()
+    session.close()
+    # Check DAG exists.
+    if dag is None:
+        error_message = "Dag id {} not found".format(dag_id)
+        raise DagNotFound(error_message)
+    try:
+        with wwwutils.open_maybe_zipped(dag.fileloc, 'r') as f:
+            code = f.read()
+            return code
+    except IOError as e:
+        error_message = "Error {} while reading Dag id {} Code".format(str(e), dag_id)
+        raise AirflowException(error_message)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Return python code of a given dag_id.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Return python code of a given dag_id.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>"Return python code of a given dag_id."</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.7715167498104596</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>def get_function(self, name):
+        """
+        Returns the Cloud Function with the given name.
+        :param name: Name of the function.
+        :type name: str
+        :return: A Cloud Functions object representing the function.
+        :rtype: dict
+        """
+        return self.get_conn().projects().locations().functions().get(
+            name=name).execute(num_retries=self.num_retries)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Returns the Cloud Function with the given name.
+        :param name: Name of the function.
+        :type name: str
+        :return: A Cloud Functions object representing the function.
+        :rtype: dict</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Returns the Cloud Function with the given name.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      ""       Returns Cloud Function thegiven name.
+</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.03986636782372494</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.8040844011283461</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>def create_new_function(self, location, body, project_id=None):
+        """
+        Creates a new function in Cloud Function in the location specified in the body.
+        :param location: The location of the function.
+        :type location: str
+        :param body: The body required by the Cloud Functions insert API.
+        :type body: dict
+        :param project_id: Optional, Google Cloud Project project_id where the function belongs.
+            If set to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None
+        """
+        response = self.get_conn().projects().locations().functions().create(
+            location=self._full_location(project_id, location),
+            body=body
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Creates a new function in Cloud Function in the location specified in the body.
+        :param location: The location of the function.
+        :type location: str
+        :param body: The body required by the Cloud Functions insert API.
+        :type body: dict
+        :param project_id: Optional, Google Cloud Project project_id where the function belongs.
+            If set to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Creates a new function in the specified location specified in the body.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>self      ""       Creates in the location specifiedinthebody.location  of functionCloud"</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.00194680012243729</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.718049122212632</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>def update_function(self, name, body, update_mask):
+        """
+        Updates Cloud Functions according to the specified update mask.
+        :param name: The name of the function.
+        :type name: str
+        :param body: The body required by the cloud function patch API.
+        :type body: dict
+        :param update_mask: The update mask - array of fields that should be patched.
+        :type update_mask: [str]
+        :return: None
+        """
+        response = self.get_conn().projects().locations().functions().patch(
+            updateMask=",".join(update_mask),
+            name=name,
+            body=body
+        ).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Updates Cloud Functions according to the specified update mask.
+        :param name: The name of the function.
+        :type name: str
+        :param body: The body required by the cloud function patch API.
+        :type body: dict
+        :param update_mask: The update mask - array of fields that should be patched.
+        :type update_mask: [str]
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Updates a Cloud Functions according to the specified update mask.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>def updatefunction(name""Cloud Functionsaccording to the specifiedupdate mask.
+response</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.003451632358286816</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.5466900918227575</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>def upload_function_zip(self, location, zip_path, project_id=None):
+        """
+        Uploads zip file with sources.
+        :param location: The location where the function is created.
+        :type location: str
+        :param zip_path: The path of the valid .zip file to upload.
+        :type zip_path: str
+        :param project_id: Optional, Google Cloud Project project_id where the function belongs.
+            If set to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: The upload URL that was returned by generateUploadUrl method.
+        """
+        response = self.get_conn().projects().locations().functions().generateUploadUrl(
+            parent=self._full_location(project_id, location)
+        ).execute(num_retries=self.num_retries)
+        upload_url = response.get('uploadUrl')
+        with open(zip_path, 'rb') as fp:
+            requests.put(
+                url=upload_url,
+                data=fp,
+                # Those two headers needs to be specified according to:
+                # https://cloud.google.com/functions/docs/reference/rest/v1/projects.locations.functions/generateUploadUrl
+                # nopep8
+                headers={
+                    'Content-type': 'application/zip',
+                    'x-goog-content-length-range': '0,104857600',
+                }
+            )
+        return upload_url</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Uploads zip file with sources.
+        :param location: The location where the function is created.
+        :type location: str
+        :param zip_path: The path of the valid .zip file to upload.
+        :type zip_path: str
+        :param project_id: Optional, Google Cloud Project project_id where the function belongs.
+            If set to None or missing, the default project_id from the GCP connection is used.
+        :type project_id: str
+        :return: The upload URL that was returned by generateUploadUrl method.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Uploads a zip file with sources.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">zip""    Uploads zipfile withsources. location </t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3.427243408403556e-06</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.2998126755983446</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>def delete_function(self, name):
+        """
+        Deletes the specified Cloud Function.
+        :param name: The name of the function.
+        :type name: str
+        :return: None
+        """
+        response = self.get_conn().projects().locations().functions().delete(
+            name=name).execute(num_retries=self.num_retries)
+        operation_name = response["name"]
+        self._wait_for_operation_to_complete(operation_name=operation_name)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Deletes the specified Cloud Function.
+        :param name: The name of the function.
+        :type name: str
+        :return: None</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Deletes the specified Cloud Function.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     Deletes the specified Cloud Function</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.04214384350927639</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.6425754631219991</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>def _wait_for_operation_to_complete(self, operation_name):
+        """
+        Waits for the named operation to complete - checks status of the
+        asynchronous call.
+        :param operation_name: The name of the operation.
+        :type operation_name: str
+        :return: The response returned by the operation.
+        :rtype: dict
+        :exception: AirflowException in case error is returned.
+        """
+        service = self.get_conn()
+        while True:
+            operation_response = service.operations().get(
+                name=operation_name,
+            ).execute(num_retries=self.num_retries)
+            if operation_response.get("done"):
+                response = operation_response.get("response")
+                error = operation_response.get("error")
+                # Note, according to documentation always either response or error is
+                # set when "done" == True
+                if error:
+                    raise AirflowException(str(error))
+                return response
+            time.sleep(TIME_TO_SLEEP_IN_SECONDS)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Waits for the named operation to complete - checks status of the
+        asynchronous call.
+        :param operation_name: The name of the operation.
+        :type operation_name: str
+        :return: The response returned by the operation.
+        :rtype: dict
+        :exception: AirflowException in case error is returned.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Waits for the named operation to complete - checks status of the asynchronous call.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Waits the named operation complete -checks status of  asynchronouscall   name     str    :
+    </t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.07427357821433388</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.6415002990995843</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>def publish(self, project, topic, messages):
+        """Publishes messages to a Pub/Sub topic.
+        :param project: the GCP project ID in which to publish
+        :type project: str
+        :param topic: the Pub/Sub topic to which to publish; do not
+            include the ``projects/{project}/topics/`` prefix.
+        :type topic: str
+        :param messages: messages to publish; if the data field in a
+            message is set, it should already be base64 encoded.
+        :type messages: list of PubSub messages; see
+            http://cloud.google.com/pubsub/docs/reference/rest/v1/PubsubMessage
+        """
+        body = {'messages': messages}
+        full_topic = _format_topic(project, topic)
+        request = self.get_conn().projects().topics().publish(
+            topic=full_topic, body=body)
+        try:
+            request.execute(num_retries=self.num_retries)
+        except HttpError as e:
+            raise PubSubException(
+                'Error publishing to topic {}'.format(full_topic), e)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Publishes messages to a Pub/Sub topic.
+        :param project: the GCP project ID in which to publish
+        :type project: str
+        :param topic: the Pub/Sub topic to which to publish; do not
+            include the ``projects/{project}/topics/`` prefix.
+        :type topic: str
+        :param messages: messages to publish; if the data field in a
+            message is set, it should already be base64 encoded.
+        :type messages: list of PubSub messages; see
+            http://cloud.google.com/pubsub/docs/reference/rest/v1/PubsubMessage</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Publishes messages to a Pub / Sub topic.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Publishesmessages to a Pub/Sub topic.to</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>3.507556219206468e-05</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.5929994533288809</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>def create_topic(self, project, topic, fail_if_exists=False):
+        """Creates a Pub/Sub topic, if it does not already exist.
+        :param project: the GCP project ID in which to create
+            the topic
+        :type project: str
+        :param topic: the Pub/Sub topic name to create; do not
+            include the ``projects/{project}/topics/`` prefix.
+        :type topic: str
+        :param fail_if_exists: if set, raise an exception if the topic
+            already exists
+        :type fail_if_exists: bool
+        """
+        service = self.get_conn()
+        full_topic = _format_topic(project, topic)
+        try:
+            service.projects().topics().create(
+                name=full_topic, body={}).execute(num_retries=self.num_retries)
+        except HttpError as e:
+            # Status code 409 indicates that the topic already exists.
+            if str(e.resp['status']) == '409':
+                message = 'Topic already exists: {}'.format(full_topic)
+                self.log.warning(message)
+                if fail_if_exists:
+                    raise PubSubException(message)
+            else:
+                raise PubSubException(
+                    'Error creating topic {}'.format(full_topic), e)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Creates a Pub/Sub topic, if it does not already exist.
+        :param project: the GCP project ID in which to create
+            the topic
+        :type project: str
+        :param topic: the Pub/Sub topic name to create; do not
+            include the ``projects/{project}/topics/`` prefix.
+        :type topic: str
+        :param fail_if_exists: if set, raise an exception if the topic
+            already exists
+        :type fail_if_exists: bool</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Create a Pub or Sub topic if it does not already exist.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">""Creates  Pub/Sub topic if itnotalready.
+    </t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.002970838513720194</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.5378315912186828</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>def delete_topic(self, project, topic, fail_if_not_exists=False):
+        """Deletes a Pub/Sub topic if it exists.
+        :param project: the GCP project ID in which to delete the topic
+        :type project: str
+        :param topic: the Pub/Sub topic name to delete; do not
+            include the ``projects/{project}/topics/`` prefix.
+        :type topic: str
+        :param fail_if_not_exists: if set, raise an exception if the topic
+            does not exist
+        :type fail_if_not_exists: bool
+        """
+        service = self.get_conn()
+        full_topic = _format_topic(project, topic)
+        try:
+            service.projects().topics().delete(topic=full_topic).execute(num_retries=self.num_retries)
+        except HttpError as e:
+            # Status code 409 indicates that the topic was not found
+            if str(e.resp['status']) == '404':
+                message = 'Topic does not exist: {}'.format(full_topic)
+                self.log.warning(message)
+                if fail_if_not_exists:
+                    raise PubSubException(message)
+            else:
+                raise PubSubException(
+                    'Error deleting topic {}'.format(full_topic), e)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Deletes a Pub/Sub topic if it exists.
+        :param project: the GCP project ID in which to delete the topic
+        :type project: str
+        :param topic: the Pub/Sub topic name to delete; do not
+            include the ``projects/{project}/topics/`` prefix.
+        :type topic: str
+        :param fail_if_not_exists: if set, raise an exception if the topic
+            does not exist
+        :type fail_if_not_exists: bool</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Deletes a Pub or Sub topic if it exists.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">""Deletesa Pub/Sub topicif
+</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0005561272307614819</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.5078333750770081</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>def create_subscription(self, topic_project, topic, subscription=None,
+                            subscription_project=None, ack_deadline_secs=10,
+                            fail_if_exists=False):
+        """Creates a Pub/Sub subscription, if it does not already exist.
+        :param topic_project: the GCP project ID of the topic that the
+            subscription will be bound to.
+        :type topic_project: str
+        :param topic: the Pub/Sub topic name that the subscription will be bound
+            to create; do not include the ``projects/{project}/subscriptions/``
+            prefix.
+        :type topic: str
+        :param subscription: the Pub/Sub subscription name. If empty, a random
+            name will be generated using the uuid module
+        :type subscription: str
+        :param subscription_project: the GCP project ID where the subscription
+            will be created. If unspecified, ``topic_project`` will be used.
+        :type subscription_project: str
+        :param ack_deadline_secs: Number of seconds that a subscriber has to
+            acknowledge each message pulled from the subscription
+        :type ack_deadline_secs: int
+        :param fail_if_exists: if set, raise an exception if the topic
+            already exists
+        :type fail_if_exists: bool
+        :return: subscription name which will be the system-generated value if
+            the ``subscription`` parameter is not supplied
+        :rtype: str
+        """
+        service = self.get_conn()
+        full_topic = _format_topic(topic_project, topic)
+        if not subscription:
+            subscription = 'sub-{}'.format(uuid4())
+        if not subscription_project:
+            subscription_project = topic_project
+        full_subscription = _format_subscription(subscription_project,
+                                                 subscription)
+        body = {
+            'topic': full_topic,
+            'ackDeadlineSeconds': ack_deadline_secs
+        }
+        try:
+            service.projects().subscriptions().create(
+                name=full_subscription, body=body).execute(num_retries=self.num_retries)
+        except HttpError as e:
+            # Status code 409 indicates that the subscription already exists.
+            if str(e.resp['status']) == '409':
+                message = 'Subscription already exists: {}'.format(
+                    full_subscription)
+                self.log.warning(message)
+                if fail_if_exists:
+                    raise PubSubException(message)
+            else:
+                raise PubSubException(
+                    'Error creating subscription {}'.format(full_subscription),
+                    e)
+        return subscription</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Creates a Pub/Sub subscription, if it does not already exist.
+        :param topic_project: the GCP project ID of the topic that the
+            subscription will be bound to.
+        :type topic_project: str
+        :param topic: the Pub/Sub topic name that the subscription will be bound
+            to create; do not include the ``projects/{project}/subscriptions/``
+            prefix.
+        :type topic: str
+        :param subscription: the Pub/Sub subscription name. If empty, a random
+            name will be generated using the uuid module
+        :type subscription: str
+        :param subscription_project: the GCP project ID where the subscription
+            will be created. If unspecified, ``topic_project`` will be used.
+        :type subscription_project: str
+        :param ack_deadline_secs: Number of seconds that a subscriber has to
+            acknowledge each message pulled from the subscription
+        :type ack_deadline_secs: int
+        :param fail_if_exists: if set, raise an exception if the topic
+            already exists
+        :type fail_if_exists: bool
+        :return: subscription name which will be the system-generated value if
+            the ``subscription`` parameter is not supplied
+        :rtype: str</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Creates a Pub / Sub subscription if it does not already exist.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Creates a Pub/Sub subscription,if it not</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>4.115026852711706e-07</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.390199486285854</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>def delete_subscription(self, project, subscription,
+                            fail_if_not_exists=False):
+        """Deletes a Pub/Sub subscription, if it exists.
+        :param project: the GCP project ID where the subscription exists
+        :type project: str
+        :param subscription: the Pub/Sub subscription name to delete; do not
+            include the ``projects/{project}/subscriptions/`` prefix.
+        :type subscription: str
+        :param fail_if_not_exists: if set, raise an exception if the topic
+            does not exist
+        :type fail_if_not_exists: bool
+        """
+        service = self.get_conn()
+        full_subscription = _format_subscription(project, subscription)
+        try:
+            service.projects().subscriptions().delete(
+                subscription=full_subscription).execute(num_retries=self.num_retries)
+        except HttpError as e:
+            # Status code 404 indicates that the subscription was not found
+            if str(e.resp['status']) == '404':
+                message = 'Subscription does not exist: {}'.format(
+                    full_subscription)
+                self.log.warning(message)
+                if fail_if_not_exists:
+                    raise PubSubException(message)
+            else:
+                raise PubSubException(
+                    'Error deleting subscription {}'.format(full_subscription),
+                    e)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Deletes a Pub/Sub subscription, if it exists.
+        :param project: the GCP project ID where the subscription exists
+        :type project: str
+        :param subscription: the Pub/Sub subscription name to delete; do not
+            include the ``projects/{project}/subscriptions/`` prefix.
+        :type subscription: str
+        :param fail_if_not_exists: if set, raise an exception if the topic
+            does not exist
+        :type fail_if_not_exists: bool</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Delete a Pub or Sub subscription if it exists.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"""Deletesa Pub/Sub subscriptionif it.
+      'Error</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0004110182519997714</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.4504426164614508</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>def pull(self, project, subscription, max_messages,
+             return_immediately=False):
+        """Pulls up to ``max_messages`` messages from Pub/Sub subscription.
+        :param project: the GCP project ID where the subscription exists
+        :type project: str
+        :param subscription: the Pub/Sub subscription name to pull from; do not
+            include the 'projects/{project}/topics/' prefix.
+        :type subscription: str
+        :param max_messages: The maximum number of messages to return from
+            the Pub/Sub API.
+        :type max_messages: int
+        :param return_immediately: If set, the Pub/Sub API will immediately
+            return if no messages are available. Otherwise, the request will
+            block for an undisclosed, but bounded period of time
+        :type return_immediately: bool
+        :return: A list of Pub/Sub ReceivedMessage objects each containing
+            an ``ackId`` property and a ``message`` property, which includes
+            the base64-encoded message content. See
+            https://cloud.google.com/pubsub/docs/reference/rest/v1/projects.subscriptions/pull#ReceivedMessage
+        """
+        service = self.get_conn()
+        full_subscription = _format_subscription(project, subscription)
+        body = {
+            'maxMessages': max_messages,
+            'returnImmediately': return_immediately
+        }
+        try:
+            response = service.projects().subscriptions().pull(
+                subscription=full_subscription, body=body).execute(num_retries=self.num_retries)
+            return response.get('receivedMessages', [])
+        except HttpError as e:
+            raise PubSubException(
+                'Error pulling messages from subscription {}'.format(
+                    full_subscription), e)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pulls up to ``max_messages`` messages from Pub/Sub subscription.
+        :param project: the GCP project ID where the subscription exists
+        :type project: str
+        :param subscription: the Pub/Sub subscription name to pull from; do not
+            include the 'projects/{project}/topics/' prefix.
+        :type subscription: str
+        :param max_messages: The maximum number of messages to return from
+            the Pub/Sub API.
+        :type max_messages: int
+        :param return_immediately: If set, the Pub/Sub API will immediately
+            return if no messages are available. Otherwise, the request will
+            block for an undisclosed, but bounded period of time
+        :type return_immediately: bool
+        :return: A list of Pub/Sub ReceivedMessage objects each containing
+            an ``ackId`` property and a ``message`` property, which includes
+            the base64-encoded message content. See
+            https://cloud.google.com/pubsub/docs/reference/rest/v1/projects.subscriptions/pull#ReceivedMessage</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Pulls up to max_messages messages from a given topic.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>subscription,max_messages, Pulls up to messagesfrom Pubparam</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>9.099846889253392e-08</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.4296014883525509</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>def acknowledge(self, project, subscription, ack_ids):
+        """Pulls up to ``max_messages`` messages from Pub/Sub subscription.
+        :param project: the GCP project name or ID in which to create
+            the topic
+        :type project: str
+        :param subscription: the Pub/Sub subscription name to delete; do not
+            include the 'projects/{project}/topics/' prefix.
+        :type subscription: str
+        :param ack_ids: List of ReceivedMessage ackIds from a previous pull
+            response
+        :type ack_ids: list
+        """
+        service = self.get_conn()
+        full_subscription = _format_subscription(project, subscription)
+        try:
+            service.projects().subscriptions().acknowledge(
+                subscription=full_subscription, body={'ackIds': ack_ids}
+            ).execute(num_retries=self.num_retries)
+        except HttpError as e:
+            raise PubSubException(
+                'Error acknowledging {} messages pulled from subscription {}'
+                .format(len(ack_ids), full_subscription), e)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Pulls up to ``max_messages`` messages from Pub/Sub subscription.
+        :param project: the GCP project name or ID in which to create
+            the topic
+        :type project: str
+        :param subscription: the Pub/Sub subscription name to delete; do not
+            include the 'projects/{project}/topics/' prefix.
+        :type subscription: str
+        :param ack_ids: List of ReceivedMessage ackIds from a previous pull
+            response
+        :type ack_ids: list</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Pulls up to max_messages messages from a topic or a topic in a GCP</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>self,Pulls up to max_messages` messages 
+:param projectthe GCP project or ID in create
+        topic
+        :paramprevious pull
+        :</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.001203249351650266</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.5742822660841129</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>def get_dep_statuses(self, ti, session, dep_context=None):
+        """
+        Wrapper around the private _get_dep_statuses method that contains some global
+        checks for all dependencies.
+        :param ti: the task instance to get the dependency status for
+        :type ti: airflow.models.TaskInstance
+        :param session: database session
+        :type session: sqlalchemy.orm.session.Session
+        :param dep_context: the context for which this dependency should be evaluated for
+        :type dep_context: DepContext
+        """
+        # this avoids a circular dependency
+        from airflow.ti_deps.dep_context import DepContext
+        if dep_context is None:
+            dep_context = DepContext()
+        if self.IGNOREABLE and dep_context.ignore_all_deps:
+            yield self._passing_status(
+                reason="Context specified all dependencies should be ignored.")
+            return
+        if self.IS_TASK_DEP and dep_context.ignore_task_deps:
+            yield self._passing_status(
+                reason="Context specified all task dependencies should be ignored.")
+            return
+        for dep_status in self._get_dep_statuses(ti, session, dep_context):
+            yield dep_status</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Wrapper around the private _get_dep_statuses method that contains some global
+        checks for all dependencies.
+        :param ti: the task instance to get the dependency status for
+        :type ti: airflow.models.TaskInstance
+        :param session: database session
+        :type session: sqlalchemy.orm.session.Session
+        :param dep_context: the context for which this dependency should be evaluated for
+        :type dep_context: DepContext</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Get the status of all dependencies for a task instance.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">depstatuses(alldependencies   task instance for    </t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0006762872281359867</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.2795426231258448</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>def is_met(self, ti, session, dep_context=None):
+        """
+        Returns whether or not this dependency is met for a given task instance. A
+        dependency is considered met if all of the dependency statuses it reports are
+        passing.
+        :param ti: the task instance to see if this dependency is met for
+        :type ti: airflow.models.TaskInstance
+        :param session: database session
+        :type session: sqlalchemy.orm.session.Session
+        :param dep_context: The context this dependency is being checked under that stores
+            state that can be used by this dependency.
+        :type dep_context: BaseDepContext
+        """
+        return all(status.passed for status in
+                   self.get_dep_statuses(ti, session, dep_context))</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Returns whether or not this dependency is met for a given task instance. A
+        dependency is considered met if all of the dependency statuses it reports are
+        passing.
+        :param ti: the task instance to see if this dependency is met for
+        :type ti: airflow.models.TaskInstance
+        :param session: database session
+        :type session: sqlalchemy.orm.session.Session
+        :param dep_context: The context this dependency is being checked under that stores
+            state that can be used by this dependency.
+        :type dep_context: BaseDepContext</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Returns whether or not this dependency is met for a given task instance.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>"      Returns whether not this dependency met a given task instance</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.004714356473549276</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.5091750772173155</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>def get_failure_reasons(self, ti, session, dep_context=None):
+        """
+        Returns an iterable of strings that explain why this dependency wasn't met.
+        :param ti: the task instance to see if this dependency is met for
+        :type ti: airflow.models.TaskInstance
+        :param session: database session
+        :type session: sqlalchemy.orm.session.Session
+        :param dep_context: The context this dependency is being checked under that stores
+            state that can be used by this dependency.
+        :type dep_context: BaseDepContext
+        """
+        for dep_status in self.get_dep_statuses(ti, session, dep_context):
+            if not dep_status.passed:
+                yield dep_status.reason</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Returns an iterable of strings that explain why this dependency wasn't met.
+        :param ti: the task instance to see if this dependency is met for
+        :type ti: airflow.models.TaskInstance
+        :param session: database session
+        :type session: sqlalchemy.orm.session.Session
+        :param dep_context: The context this dependency is being checked under that stores
+            state that can be used by this dependency.
+        :type dep_context: BaseDepContext</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Returns an iterable of explain why this dependency was met.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    iterable of explain whythis dependency wasnmet    
+</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.002278350634615083</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.4260064336151291</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>def _parse_s3_config(config_file_name, config_format='boto', profile=None):
+    """
+    Parses a config file for s3 credentials. Can currently
+    parse boto, s3cmd.conf and AWS SDK config formats
+    :param config_file_name: path to the config file
+    :type config_file_name: str
+    :param config_format: config type. One of "boto", "s3cmd" or "aws".
+        Defaults to "boto"
+    :type config_format: str
+    :param profile: profile name in AWS type config file
+    :type profile: str
+    """
+    config = configparser.ConfigParser()
+    if config.read(config_file_name):  # pragma: no cover
+        sections = config.sections()
+    else:
+        raise AirflowException("Couldn't read {0}".format(config_file_name))
+    # Setting option names depending on file format
+    if config_format is None:
+        config_format = 'boto'
+    conf_format = config_format.lower()
+    if conf_format == 'boto':  # pragma: no cover
+        if profile is not None and 'profile ' + profile in sections:
+            cred_section = 'profile ' + profile
+        else:
+            cred_section = 'Credentials'
+    elif conf_format == 'aws' and profile is not None:
+        cred_section = profile
+    else:
+        cred_section = 'default'
+    # Option names
+    if conf_format in ('boto', 'aws'):  # pragma: no cover
+        key_id_option = 'aws_access_key_id'
+        secret_key_option = 'aws_secret_access_key'
+        # security_token_option = 'aws_security_token'
+    else:
+        key_id_option = 'access_key'
+        secret_key_option = 'secret_key'
+    # Actual Parsing
+    if cred_section not in sections:
+        raise AirflowException("This config file format is not recognized")
+    else:
+        try:
+            access_key = config.get(cred_section, key_id_option)
+            secret_key = config.get(cred_section, secret_key_option)
+        except Exception:
+            logging.warning("Option Error in parsing s3 config file")
+            raise
+        return access_key, secret_key</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Parses a config file for s3 credentials. Can currently
+    parse boto, s3cmd.conf and AWS SDK config formats
+    :param config_file_name: path to the config file
+    :type config_file_name: str
+    :param config_format: config type. One of "boto", "s3cmd" or "aws".
+        Defaults to "boto"
+    :type config_format: str
+    :param profile: profile name in AWS type config file
+    :type profile: str</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Parses a config file for s3 credentials.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>None)Parses a config for s3 credentials</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0001234098040866796</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.3034572967243526</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>def get_credentials(self, region_name=None):
+        """Get the underlying `botocore.Credentials` object.
+        This contains the following authentication attributes: access_key, secret_key and token.
+        """
+        session, _ = self._get_credentials(region_name)
+        # Credentials are refreshable, so accessing your access key and
+        # secret key separately can lead to a race condition.
+        # See https://stackoverflow.com/a/36291428/8283373
+        return session.get_credentials().get_frozen_credentials()</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Get the underlying `botocore.Credentials` object.
+        This contains the following authentication attributes: access_key, secret_key and token.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Get the underlying botocore. Credentials object.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>""Get underlyingbotocore.Credentials</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.03562560700242932</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.4714045207910317</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>def expand_role(self, role):
+        """
+        If the IAM role is a role name, get the Amazon Resource Name (ARN) for the role.
+        If IAM role is already an IAM role ARN, no change is made.
+        :param role: IAM role name or ARN
+        :return: IAM role ARN
+        """
+        if '/' in role:
+            return role
+        else:
+            return self.get_client_type('iam').get_role(RoleName=role)['Role']['Arn']</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>If the IAM role is a role name, get the Amazon Resource Name (ARN) for the role.
+        If IAM role is already an IAM role ARN, no change is made.
+        :param role: IAM role name or ARN
+        :return: IAM role ARN</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>This method expands the given role name to an ARN.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> expandrole(self) """
+  Amazon (.
+   is an IAM,param role IAM role name orARN
+              returnrolerole)'Arn</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.00138230492616409</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.8751723492699257</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>def get_conn(self):
+        """
+        Returns verticaql connection object
+        """
+        conn = self.get_connection(self.vertica_conn_id)
+        conn_config = {
+            "user": conn.login,
+            "password": conn.password or '',
+            "database": conn.schema,
+            "host": conn.host or 'localhost'
+        }
+        if not conn.port:
+            conn_config["port"] = 5433
+        else:
+            conn_config["port"] = int(conn.port)
+        conn = connect(**conn_config)
+        return conn</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Returns verticaql connection object</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Returns verticaql connection object.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>(self Returns verticaql connection objectport:
+            [else:
+            conn_</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.668740304976422</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.7071067811865475</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>def set_context(logger, value):
+    """
+    Walks the tree of loggers and tries to set the context for each handler
+    :param logger: logger
+    :param value: value to set
+    """
+    _logger = logger
+    while _logger:
+        for handler in _logger.handlers:
+            try:
+                handler.set_context(value)
+            except AttributeError:
+                # Not all handlers need to have context passed in so we ignore
+                # the error when handlers do not have set_context defined.
+                pass
+        if _logger.propagate is True:
+            _logger = _logger.parent
+        else:
+            _logger = None</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Walks the tree of loggers and tries to set the context for each handler
+    :param logger: logger
+    :param value: value to set</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Walks the tree of loggers and tries to set the context for each handler.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Walks tree loggersand tries tosetthe context for each handler
+ when handlers </t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.444470289999034</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.6875238727711586</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>def write(self, message):
+        """
+        Do whatever it takes to actually log the specified logging record
+        :param message: message to log
+        """
+        if not message.endswith("\n"):
+            self._buffer += message
+        else:
+            self._buffer += message
+            self.logger.log(self.level, self._buffer.rstrip())
+            self._buffer = str()</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Do whatever it takes to actually log the specified logging record
+        :param message: message to log</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Log a message to the log file.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">write(     "
+   tolog :param message: to log
+  </t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.02116153067462957</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.7071067811865475</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>def flush(self):
+        """
+        Ensure all logging output has been flushed
+        """
+        if len(self._buffer) &gt; 0:
+            self.logger.log(self.level, self._buffer)
+            self._buffer = str()</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Ensure all logging output has been flushed</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Flush all logging output to the logger.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>flushallloggingoutputlogger</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.1374708101760565</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.50709255283711</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>def correct_maybe_zipped(fileloc):
+    """
+    If the path contains a folder with a .zip suffix, then
+    the folder is treated as a zip archive and path to zip is returned.
+    """
+    _, archive, filename = re.search(
+        r'((.*\.zip){})?(.*)'.format(re.escape(os.sep)), fileloc).groups()
+    if archive and zipfile.is_zipfile(archive):
+        return archive
+    else:
+        return fileloc</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>If the path contains a folder with a .zip suffix, then
+    the folder is treated as a zip archive and path to zip is returned.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Checks if the file is a zip archive and if so returns the path to the zip archive</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_maybezipped(fileloc):
+""is  a ziparchive and path to zip""
+</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.1248858041948733</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.6254627916220946</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>def list_py_file_paths(directory, safe_mode=True,
+                       include_examples=None):
+    """
+    Traverse a directory and look for Python files.
+    :param directory: the directory to traverse
+    :type directory: unicode
+    :param safe_mode: whether to use a heuristic to determine whether a file
+        contains Airflow DAG definitions
+    :return: a list of paths to Python files in the specified directory
+    :rtype: list[unicode]
+    """
+    if include_examples is None:
+        include_examples = conf.getboolean('core', 'LOAD_EXAMPLES')
+    file_paths = []
+    if directory is None:
+        return []
+    elif os.path.isfile(directory):
+        return [directory]
+    elif os.path.isdir(directory):
+        patterns_by_dir = {}
+        for root, dirs, files in os.walk(directory, followlinks=True):
+            patterns = patterns_by_dir.get(root, [])
+            ignore_file = os.path.join(root, '.airflowignore')
+            if os.path.isfile(ignore_file):
+                with open(ignore_file, 'r') as f:
+                    # If we have new patterns create a copy so we don't change
+                    # the previous list (which would affect other subdirs)
+                    patterns += [re.compile(p) for p in f.read().split('\n') if p]
+            # If we can ignore any subdirs entirely we should - fewer paths
+            # to walk is better. We have to modify the ``dirs`` array in
+            # place for this to affect os.walk
+            dirs[:] = [
+                d
+                for d in dirs
+                if not any(p.search(os.path.join(root, d)) for p in patterns)
+            ]
+            # We want patterns defined in a parent folder's .airflowignore to
+            # apply to subdirs too
+            for d in dirs:
+                patterns_by_dir[os.path.join(root, d)] = patterns
+            for f in files:
+                try:
+                    file_path = os.path.join(root, f)
+                    if not os.path.isfile(file_path):
+                        continue
+                    mod_name, file_ext = os.path.splitext(
+                        os.path.split(file_path)[-1])
+                    if file_ext != '.py' and not zipfile.is_zipfile(file_path):
+                        continue
+                    if any([re.findall(p, file_path) for p in patterns]):
+                        continue
+                    # Heuristic that guesses whether a Python file contains an
+                    # Airflow DAG definition.
+                    might_contain_dag = True
+                    if safe_mode and not zipfile.is_zipfile(file_path):
+                        with open(file_path, 'rb') as fp:
+                            content = fp.read()
+                            might_contain_dag = all(
+                                [s in content for s in (b'DAG', b'airflow')])
+                    if not might_contain_dag:
+                        continue
+                    file_paths.append(file_path)
+                except Exception:
+                    log = LoggingMixin().log
+                    log.exception("Error while examining %s", f)
+    if include_examples:
+        import airflow.example_dags
+        example_dag_folder = airflow.example_dags.__path__[0]
+        file_paths.extend(list_py_file_paths(example_dag_folder, safe_mode, False))
+    return file_paths</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Traverse a directory and look for Python files.
+    :param directory: the directory to traverse
+    :type directory: unicode
+    :param safe_mode: whether to use a heuristic to determine whether a file
+        contains Airflow DAG definitions
+    :return: a list of paths to Python files in the specified directory
+    :rtype: list[unicode]</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>List all Python files in a directory and return a list of paths to Python files in the</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>deflistpaths()
+""  Traverse a directoryand  unicode
+ listof paths to Python files in specified</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.05342248021859666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.6457925788671688</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>def construct_task_instance(self, session=None, lock_for_update=False):
+        """
+        Construct a TaskInstance from the database based on the primary key
+        :param session: DB session.
+        :param lock_for_update: if True, indicates that the database should
+            lock the TaskInstance (issuing a FOR UPDATE clause) until the
+            session is committed.
+        """
+        TI = airflow.models.TaskInstance
+        qry = session.query(TI).filter(
+            TI.dag_id == self._dag_id,
+            TI.task_id == self._task_id,
+            TI.execution_date == self._execution_date)
+        if lock_for_update:
+            ti = qry.with_for_update().first()
+        else:
+            ti = qry.first()
+        return ti</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Construct a TaskInstance from the database based on the primary key
+        :param session: DB session.
+        :param lock_for_update: if True, indicates that the database should
+            lock the TaskInstance (issuing a FOR UPDATE clause) until the
+            session is committed.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Construct a TaskInstance from the database based on the primary key.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">construct__a TaskInstance the database based on primarykey
+</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.05431543892038985</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.604707897906952</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>def get_dag(self, dag_id):
+        """
+        :param dag_id: DAG ID
+        :type dag_id: unicode
+        :return: if the given DAG ID exists in the bag, return the BaseDag
+        corresponding to that ID. Otherwise, throw an Exception
+        :rtype: airflow.utils.dag_processing.SimpleDag
+        """
+        if dag_id not in self.dag_id_to_simple_dag:
+            raise AirflowException("Unknown DAG ID {}".format(dag_id))
+        return self.dag_id_to_simple_dag[dag_id]</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>:param dag_id: DAG ID
+        :type dag_id: unicode
+        :return: if the given DAG ID exists in the bag, return the BaseDag
+        corresponding to that ID. Otherwise, throw an Exception
+        :rtype: airflow.utils.dag_processing.SimpleDag</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Get the SimpleDagIntegrityRecord corresponding to the given DAG ID.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>def get_dag(self, dag_ unicode       :return: if given DAG ID in,returnthe BaseDag
+        corresponding to, an Exception
+        :utils.processing.SimpleDag
+        dag:
+            raise  id_to_simple_dag[id</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.01599012904842962</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.6927435689894239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metricsWithoutComments.xlsx
+++ b/metricsWithoutComments.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9544,6 +9544,252 @@
         <v>0.6927435689894239</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Heartbeat DAG file processor and start it if it is not alive.
+        :return:</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Heartbeat manager.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.001773278430100016</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.7016464154456231</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Heartbeat DAG file processor and start it if it is not alive.
+        :return:</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Heartbeat manager.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.001773278430100016</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.7016464154456231</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Heartbeat DAG file processor and start it if it is not alive.
+        :return:</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Heartbeat manager.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.001773278430100016</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.7016464154456231</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Heartbeat DAG file processor and start it if it is not alive.
+        :return:</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Heartbeat manager.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.001773278430100016</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.7016464154456231</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Heartbeat DAG file processor and start it if it is not alive.
+        :return:</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Heartbeat manager.</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.001773278430100016</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.7016464154456231</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Heartbeat DAG file processor and start it if it is not alive.
+        :return:</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Heartbeat manager.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>def _heartbeat_manager(self):
+        """
+        Heartbeat DAG file processor and start it if it is not alive.
+        :return:
+        """
+        if self._process and not self._process.is_alive() and not self.done:
+            self.start()</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.001773278430100016</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.7016464154456231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
